--- a/BackTest/2019-10-29 BackTest MITH.xlsx
+++ b/BackTest/2019-10-29 BackTest MITH.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M128"/>
+  <dimension ref="A1:N128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -448,7 +453,7 @@
         <v>13942.3258</v>
       </c>
       <c r="G2" t="n">
-        <v>-561722.2114999999</v>
+        <v>15.255</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -483,7 +489,7 @@
         <v>247046.4274</v>
       </c>
       <c r="G3" t="n">
-        <v>-314675.7840999999</v>
+        <v>15.245</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,7 +525,7 @@
         <v>209180.9987</v>
       </c>
       <c r="G4" t="n">
-        <v>-314675.7840999999</v>
+        <v>15.24</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,6 +539,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -553,7 +561,7 @@
         <v>8000</v>
       </c>
       <c r="G5" t="n">
-        <v>-314675.7840999999</v>
+        <v>15.24</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,6 +575,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -588,7 +597,7 @@
         <v>55619.8228</v>
       </c>
       <c r="G6" t="n">
-        <v>-370295.6068999999</v>
+        <v>15.225</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -606,6 +615,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -627,7 +637,7 @@
         <v>10435.1664</v>
       </c>
       <c r="G7" t="n">
-        <v>-359860.4404999999</v>
+        <v>15.215</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -647,6 +657,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -668,7 +679,7 @@
         <v>129286.4783</v>
       </c>
       <c r="G8" t="n">
-        <v>-489146.9187999999</v>
+        <v>15.205</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
@@ -690,6 +701,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -711,7 +723,7 @@
         <v>1624.7647</v>
       </c>
       <c r="G9" t="n">
-        <v>-490771.6834999999</v>
+        <v>15.2</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -731,6 +743,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -752,7 +765,7 @@
         <v>53893.7319</v>
       </c>
       <c r="G10" t="n">
-        <v>-490771.6834999999</v>
+        <v>15.195</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -772,6 +785,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -793,7 +807,7 @@
         <v>105073.5784</v>
       </c>
       <c r="G11" t="n">
-        <v>-490771.6834999999</v>
+        <v>15.19000000000001</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -813,6 +827,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -834,7 +849,7 @@
         <v>13200</v>
       </c>
       <c r="G12" t="n">
-        <v>-490771.6834999999</v>
+        <v>15.18500000000001</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -854,6 +869,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -875,7 +891,7 @@
         <v>3100</v>
       </c>
       <c r="G13" t="n">
-        <v>-490771.6834999999</v>
+        <v>15.18000000000001</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -895,6 +911,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -916,7 +933,7 @@
         <v>5314.6357</v>
       </c>
       <c r="G14" t="n">
-        <v>-490771.6834999999</v>
+        <v>15.18000000000001</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -936,6 +953,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -957,7 +975,7 @@
         <v>255160.2415</v>
       </c>
       <c r="G15" t="n">
-        <v>-235611.4419999999</v>
+        <v>15.17500000000001</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -977,6 +995,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -998,7 +1017,7 @@
         <v>53.15</v>
       </c>
       <c r="G16" t="n">
-        <v>-235664.5919999999</v>
+        <v>15.17500000000001</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1018,6 +1037,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1039,7 +1059,7 @@
         <v>6486.1328</v>
       </c>
       <c r="G17" t="n">
-        <v>-235664.5919999999</v>
+        <v>15.16500000000001</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1059,6 +1079,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1080,7 +1101,7 @@
         <v>2278.8669</v>
       </c>
       <c r="G18" t="n">
-        <v>-237943.4588999999</v>
+        <v>15.16000000000001</v>
       </c>
       <c r="H18" t="n">
         <v>1</v>
@@ -1102,6 +1123,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1123,7 +1145,7 @@
         <v>100</v>
       </c>
       <c r="G19" t="n">
-        <v>-237843.4588999999</v>
+        <v>15.16500000000001</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1143,6 +1165,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1164,7 +1187,7 @@
         <v>50000</v>
       </c>
       <c r="G20" t="n">
-        <v>-287843.4588999999</v>
+        <v>15.16000000000001</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1184,6 +1207,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1205,7 +1229,7 @@
         <v>9158.088299999999</v>
       </c>
       <c r="G21" t="n">
-        <v>-287843.4588999999</v>
+        <v>15.14500000000001</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1225,6 +1249,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1246,7 +1271,7 @@
         <v>67998.54059999999</v>
       </c>
       <c r="G22" t="n">
-        <v>-287843.4588999999</v>
+        <v>15.13500000000001</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1266,6 +1291,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1287,7 +1313,7 @@
         <v>5817.8256</v>
       </c>
       <c r="G23" t="n">
-        <v>-287843.4588999999</v>
+        <v>15.13000000000001</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1307,6 +1333,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1328,7 +1355,7 @@
         <v>129953.6775</v>
       </c>
       <c r="G24" t="n">
-        <v>-157889.7813999999</v>
+        <v>15.12500000000001</v>
       </c>
       <c r="H24" t="n">
         <v>1</v>
@@ -1350,6 +1377,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1371,7 +1399,7 @@
         <v>295730.4961</v>
       </c>
       <c r="G25" t="n">
-        <v>-157889.7813999999</v>
+        <v>15.11500000000001</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1391,6 +1419,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1412,7 +1441,7 @@
         <v>14030</v>
       </c>
       <c r="G26" t="n">
-        <v>-157889.7813999999</v>
+        <v>15.12000000000001</v>
       </c>
       <c r="H26" t="n">
         <v>1</v>
@@ -1434,6 +1463,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1455,7 +1485,7 @@
         <v>109.7637</v>
       </c>
       <c r="G27" t="n">
-        <v>-157889.7813999999</v>
+        <v>15.12000000000001</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1475,6 +1505,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1496,7 +1527,7 @@
         <v>548.131</v>
       </c>
       <c r="G28" t="n">
-        <v>-157889.7813999999</v>
+        <v>15.12000000000001</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1516,6 +1547,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1537,7 +1569,7 @@
         <v>365.4186</v>
       </c>
       <c r="G29" t="n">
-        <v>-157889.7813999999</v>
+        <v>15.12500000000001</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1557,6 +1589,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1578,7 +1611,7 @@
         <v>104759.1666</v>
       </c>
       <c r="G30" t="n">
-        <v>-53130.61479999992</v>
+        <v>15.13500000000001</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1598,6 +1631,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1619,7 +1653,7 @@
         <v>1324.8738</v>
       </c>
       <c r="G31" t="n">
-        <v>-54455.48859999992</v>
+        <v>15.14000000000001</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1639,6 +1673,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1660,7 +1695,7 @@
         <v>9000</v>
       </c>
       <c r="G32" t="n">
-        <v>-54455.48859999992</v>
+        <v>15.145</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1680,6 +1715,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1701,7 +1737,7 @@
         <v>190289.4279</v>
       </c>
       <c r="G33" t="n">
-        <v>-54455.48859999992</v>
+        <v>15.15</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1721,6 +1757,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1742,7 +1779,7 @@
         <v>5965</v>
       </c>
       <c r="G34" t="n">
-        <v>-54455.48859999992</v>
+        <v>15.155</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1762,6 +1799,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1783,7 +1821,7 @@
         <v>13700</v>
       </c>
       <c r="G35" t="n">
-        <v>-54455.48859999992</v>
+        <v>15.165</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1803,6 +1841,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1824,7 +1863,7 @@
         <v>25800</v>
       </c>
       <c r="G36" t="n">
-        <v>-54455.48859999992</v>
+        <v>15.17</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1844,6 +1883,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1865,7 +1905,7 @@
         <v>28500</v>
       </c>
       <c r="G37" t="n">
-        <v>-54455.48859999992</v>
+        <v>15.175</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1885,6 +1925,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1906,7 +1947,7 @@
         <v>37060</v>
       </c>
       <c r="G38" t="n">
-        <v>-54455.48859999992</v>
+        <v>15.185</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1926,6 +1967,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1947,7 +1989,7 @@
         <v>648.3968</v>
       </c>
       <c r="G39" t="n">
-        <v>-54455.48859999992</v>
+        <v>15.185</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1967,6 +2009,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1988,7 +2031,7 @@
         <v>50000</v>
       </c>
       <c r="G40" t="n">
-        <v>-4455.488599999924</v>
+        <v>15.195</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2008,6 +2051,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2029,7 +2073,7 @@
         <v>4334.6129</v>
       </c>
       <c r="G41" t="n">
-        <v>-4455.488599999924</v>
+        <v>15.20499999999999</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2049,6 +2093,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2070,7 +2115,7 @@
         <v>158638</v>
       </c>
       <c r="G42" t="n">
-        <v>154182.5114000001</v>
+        <v>15.21999999999999</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2090,6 +2135,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2111,7 +2157,7 @@
         <v>10000</v>
       </c>
       <c r="G43" t="n">
-        <v>154182.5114000001</v>
+        <v>15.23499999999999</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2131,6 +2177,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2152,7 +2199,7 @@
         <v>8087.4025</v>
       </c>
       <c r="G44" t="n">
-        <v>154182.5114000001</v>
+        <v>15.24499999999999</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2172,6 +2219,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2193,7 +2241,7 @@
         <v>37592.1476</v>
       </c>
       <c r="G45" t="n">
-        <v>116590.3638000001</v>
+        <v>15.24999999999999</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2213,6 +2261,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2234,7 +2283,7 @@
         <v>195265.8951</v>
       </c>
       <c r="G46" t="n">
-        <v>-78675.53129999992</v>
+        <v>15.25499999999999</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2254,6 +2303,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2275,7 +2325,7 @@
         <v>272.702</v>
       </c>
       <c r="G47" t="n">
-        <v>-78402.82929999991</v>
+        <v>15.25999999999999</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2295,6 +2345,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2316,7 +2367,7 @@
         <v>81929.79459999999</v>
       </c>
       <c r="G48" t="n">
-        <v>-160332.6238999999</v>
+        <v>15.265</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2336,6 +2387,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2357,7 +2409,7 @@
         <v>40964.8973</v>
       </c>
       <c r="G49" t="n">
-        <v>-160332.6238999999</v>
+        <v>15.265</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2377,6 +2429,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2398,7 +2451,7 @@
         <v>143.0194</v>
       </c>
       <c r="G50" t="n">
-        <v>-160189.6044999999</v>
+        <v>15.26999999999999</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2418,6 +2471,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2439,7 +2493,7 @@
         <v>288.8961</v>
       </c>
       <c r="G51" t="n">
-        <v>-160189.6044999999</v>
+        <v>15.27999999999999</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2459,6 +2513,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2480,7 +2535,7 @@
         <v>13506.4935</v>
       </c>
       <c r="G52" t="n">
-        <v>-160189.6044999999</v>
+        <v>15.28999999999999</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2500,6 +2555,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2521,7 +2577,7 @@
         <v>14100</v>
       </c>
       <c r="G53" t="n">
-        <v>-160189.6044999999</v>
+        <v>15.29999999999999</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2541,6 +2597,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2562,7 +2619,7 @@
         <v>17158.8571</v>
       </c>
       <c r="G54" t="n">
-        <v>-160189.6044999999</v>
+        <v>15.30999999999999</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2582,6 +2639,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2603,7 +2661,7 @@
         <v>109360.3289</v>
       </c>
       <c r="G55" t="n">
-        <v>-269549.9333999999</v>
+        <v>15.31499999999999</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2623,6 +2681,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2644,7 +2703,7 @@
         <v>26438.6666</v>
       </c>
       <c r="G56" t="n">
-        <v>-269549.9333999999</v>
+        <v>15.31999999999999</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2664,6 +2723,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2685,7 +2745,7 @@
         <v>128886.0492</v>
       </c>
       <c r="G57" t="n">
-        <v>-398435.9825999999</v>
+        <v>15.32499999999999</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2705,6 +2765,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2726,7 +2787,7 @@
         <v>6317</v>
       </c>
       <c r="G58" t="n">
-        <v>-392118.9825999999</v>
+        <v>15.32999999999999</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2746,6 +2807,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2767,7 +2829,7 @@
         <v>26600</v>
       </c>
       <c r="G59" t="n">
-        <v>-392118.9825999999</v>
+        <v>15.335</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2787,6 +2849,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2808,7 +2871,7 @@
         <v>112283.7208</v>
       </c>
       <c r="G60" t="n">
-        <v>-504402.7033999999</v>
+        <v>15.32999999999999</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2828,6 +2891,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2849,7 +2913,7 @@
         <v>2482.8592</v>
       </c>
       <c r="G61" t="n">
-        <v>-504402.7033999999</v>
+        <v>15.32499999999999</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2869,6 +2933,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2890,7 +2955,7 @@
         <v>72074.44439999999</v>
       </c>
       <c r="G62" t="n">
-        <v>-432328.2589999999</v>
+        <v>15.32</v>
       </c>
       <c r="H62" t="n">
         <v>1</v>
@@ -2912,6 +2977,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2933,7 +2999,7 @@
         <v>133392.2091</v>
       </c>
       <c r="G63" t="n">
-        <v>-565720.4680999999</v>
+        <v>15.31</v>
       </c>
       <c r="H63" t="n">
         <v>1</v>
@@ -2955,6 +3021,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2976,7 +3043,7 @@
         <v>7042.6138</v>
       </c>
       <c r="G64" t="n">
-        <v>-565720.4680999999</v>
+        <v>15.295</v>
       </c>
       <c r="H64" t="n">
         <v>1</v>
@@ -2998,6 +3065,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3019,7 +3087,7 @@
         <v>196221.7647</v>
       </c>
       <c r="G65" t="n">
-        <v>-369498.7033999999</v>
+        <v>15.295</v>
       </c>
       <c r="H65" t="n">
         <v>1</v>
@@ -3041,6 +3109,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3062,7 +3131,7 @@
         <v>51900</v>
       </c>
       <c r="G66" t="n">
-        <v>-421398.7033999999</v>
+        <v>15.29</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3082,6 +3151,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3103,7 +3173,7 @@
         <v>50000</v>
       </c>
       <c r="G67" t="n">
-        <v>-421398.7033999999</v>
+        <v>15.285</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3123,6 +3193,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3144,7 +3215,7 @@
         <v>29541.3071</v>
       </c>
       <c r="G68" t="n">
-        <v>-391857.3963</v>
+        <v>15.285</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3164,6 +3235,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3185,7 +3257,7 @@
         <v>20</v>
       </c>
       <c r="G69" t="n">
-        <v>-391877.3963</v>
+        <v>15.295</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3205,6 +3277,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3226,7 +3299,7 @@
         <v>107212.1815</v>
       </c>
       <c r="G70" t="n">
-        <v>-391877.3963</v>
+        <v>15.295</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3246,6 +3319,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3267,7 +3341,7 @@
         <v>54900</v>
       </c>
       <c r="G71" t="n">
-        <v>-336977.3963</v>
+        <v>15.285</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3287,6 +3361,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3308,7 +3383,7 @@
         <v>51000</v>
       </c>
       <c r="G72" t="n">
-        <v>-387977.3963</v>
+        <v>15.28</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3328,6 +3403,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3349,7 +3425,7 @@
         <v>101756.7532467532</v>
       </c>
       <c r="G73" t="n">
-        <v>-387977.3963</v>
+        <v>15.28</v>
       </c>
       <c r="H73" t="n">
         <v>1</v>
@@ -3371,6 +3447,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3392,7 +3469,7 @@
         <v>20482.4487</v>
       </c>
       <c r="G74" t="n">
-        <v>-387977.3963</v>
+        <v>15.27</v>
       </c>
       <c r="H74" t="n">
         <v>1</v>
@@ -3414,6 +3491,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3435,7 +3513,7 @@
         <v>13344.711</v>
       </c>
       <c r="G75" t="n">
-        <v>-374632.6853</v>
+        <v>15.27</v>
       </c>
       <c r="H75" t="n">
         <v>1</v>
@@ -3457,6 +3535,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3478,7 +3557,7 @@
         <v>115378.8643</v>
       </c>
       <c r="G76" t="n">
-        <v>-490011.5496</v>
+        <v>15.265</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3498,6 +3577,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3519,7 +3599,7 @@
         <v>42045.141</v>
       </c>
       <c r="G77" t="n">
-        <v>-490011.5496</v>
+        <v>15.26</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3539,6 +3619,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3560,7 +3641,7 @@
         <v>5515</v>
       </c>
       <c r="G78" t="n">
-        <v>-490011.5496</v>
+        <v>15.255</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3580,6 +3661,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3601,7 +3683,7 @@
         <v>48605</v>
       </c>
       <c r="G79" t="n">
-        <v>-490011.5496</v>
+        <v>15.24999999999999</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3621,6 +3703,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3642,7 +3725,7 @@
         <v>24545</v>
       </c>
       <c r="G80" t="n">
-        <v>-490011.5496</v>
+        <v>15.24999999999999</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3662,6 +3745,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3683,7 +3767,7 @@
         <v>27600</v>
       </c>
       <c r="G81" t="n">
-        <v>-490011.5496</v>
+        <v>15.24999999999999</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3703,6 +3787,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3724,7 +3809,7 @@
         <v>7582.003</v>
       </c>
       <c r="G82" t="n">
-        <v>-497593.5526</v>
+        <v>15.24499999999999</v>
       </c>
       <c r="H82" t="n">
         <v>1</v>
@@ -3746,6 +3831,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3767,7 +3853,7 @@
         <v>50554.577</v>
       </c>
       <c r="G83" t="n">
-        <v>-447038.9756</v>
+        <v>15.24499999999999</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3787,6 +3873,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3808,7 +3895,7 @@
         <v>6578.9473</v>
       </c>
       <c r="G84" t="n">
-        <v>-447038.9756</v>
+        <v>15.24999999999999</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3828,6 +3915,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3849,7 +3937,7 @@
         <v>1888.5549</v>
       </c>
       <c r="G85" t="n">
-        <v>-447038.9756</v>
+        <v>15.24499999999999</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3869,6 +3957,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3890,7 +3979,7 @@
         <v>32512.0625</v>
       </c>
       <c r="G86" t="n">
-        <v>-414526.9131</v>
+        <v>15.25499999999999</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3910,6 +3999,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3931,7 +4021,7 @@
         <v>10</v>
       </c>
       <c r="G87" t="n">
-        <v>-414516.9131</v>
+        <v>15.26999999999999</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3951,6 +4041,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3972,7 +4063,7 @@
         <v>236615</v>
       </c>
       <c r="G88" t="n">
-        <v>-651131.9131</v>
+        <v>15.26999999999999</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3992,6 +4083,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -4013,7 +4105,7 @@
         <v>170868</v>
       </c>
       <c r="G89" t="n">
-        <v>-480263.9131</v>
+        <v>15.27499999999999</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -4033,6 +4125,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4054,7 +4147,7 @@
         <v>190000</v>
       </c>
       <c r="G90" t="n">
-        <v>-290263.9131</v>
+        <v>15.28499999999999</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -4074,6 +4167,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4095,7 +4189,7 @@
         <v>143991.3958</v>
       </c>
       <c r="G91" t="n">
-        <v>-290263.9131</v>
+        <v>15.31999999999999</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -4115,6 +4209,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4136,7 +4231,7 @@
         <v>64600</v>
       </c>
       <c r="G92" t="n">
-        <v>-225663.9131</v>
+        <v>15.35499999999999</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -4156,6 +4251,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4177,7 +4273,7 @@
         <v>267267.8856</v>
       </c>
       <c r="G93" t="n">
-        <v>41603.97249999997</v>
+        <v>15.38499999999999</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4197,6 +4293,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4218,7 +4315,7 @@
         <v>39639.6796</v>
       </c>
       <c r="G94" t="n">
-        <v>41603.97249999997</v>
+        <v>15.43</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4238,6 +4335,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4259,7 +4357,7 @@
         <v>190413.3</v>
       </c>
       <c r="G95" t="n">
-        <v>41603.97249999997</v>
+        <v>15.47499999999999</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4279,6 +4377,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4300,7 +4399,7 @@
         <v>225425.4704</v>
       </c>
       <c r="G96" t="n">
-        <v>-183821.4979</v>
+        <v>15.525</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4320,6 +4419,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4341,7 +4441,7 @@
         <v>190471</v>
       </c>
       <c r="G97" t="n">
-        <v>6649.502099999983</v>
+        <v>15.57999999999999</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4361,6 +4461,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4382,7 +4483,7 @@
         <v>1020349.4199</v>
       </c>
       <c r="G98" t="n">
-        <v>1026998.922</v>
+        <v>15.645</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4402,6 +4503,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4423,13 +4525,13 @@
         <v>654155.1551</v>
       </c>
       <c r="G99" t="n">
-        <v>1026998.922</v>
+        <v>15.71</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
@@ -4437,11 +4539,14 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M99" t="n">
-        <v>1</v>
+        <v>1.072922077922078</v>
+      </c>
+      <c r="N99" t="n">
+        <v>1.019867549668874</v>
       </c>
     </row>
     <row r="100">
@@ -4464,26 +4569,21 @@
         <v>405142.0102</v>
       </c>
       <c r="G100" t="n">
-        <v>621856.9118</v>
+        <v>15.78</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4505,26 +4605,21 @@
         <v>261163.9175</v>
       </c>
       <c r="G101" t="n">
-        <v>883020.8293</v>
+        <v>15.84</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4546,26 +4641,21 @@
         <v>143197.4809</v>
       </c>
       <c r="G102" t="n">
-        <v>883020.8293</v>
+        <v>15.9</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4587,26 +4677,21 @@
         <v>217137.2518</v>
       </c>
       <c r="G103" t="n">
-        <v>883020.8293</v>
+        <v>15.96</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4628,26 +4713,21 @@
         <v>280501.822</v>
       </c>
       <c r="G104" t="n">
-        <v>883020.8293</v>
+        <v>16.02</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4669,7 +4749,7 @@
         <v>12926.968</v>
       </c>
       <c r="G105" t="n">
-        <v>895947.7973</v>
+        <v>16.09</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4678,17 +4758,12 @@
         <v>1</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
-        <v>1.072922077922078</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4710,7 +4785,7 @@
         <v>78004.2104</v>
       </c>
       <c r="G106" t="n">
-        <v>817943.5869</v>
+        <v>16.14</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4724,6 +4799,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4745,7 +4821,7 @@
         <v>23741.2873</v>
       </c>
       <c r="G107" t="n">
-        <v>817943.5869</v>
+        <v>16.185</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4759,6 +4835,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4780,13 +4857,13 @@
         <v>142088.7126</v>
       </c>
       <c r="G108" t="n">
-        <v>817943.5869</v>
+        <v>16.23999999999999</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
@@ -4794,6 +4871,7 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4815,7 +4893,7 @@
         <v>10</v>
       </c>
       <c r="G109" t="n">
-        <v>817953.5869</v>
+        <v>16.29</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4829,6 +4907,7 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4850,7 +4929,7 @@
         <v>144271.1658</v>
       </c>
       <c r="G110" t="n">
-        <v>673682.4211</v>
+        <v>16.325</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4864,6 +4943,7 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4885,7 +4965,7 @@
         <v>12</v>
       </c>
       <c r="G111" t="n">
-        <v>673694.4211</v>
+        <v>16.34999999999999</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4899,6 +4979,7 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4920,13 +5001,13 @@
         <v>16721.4024</v>
       </c>
       <c r="G112" t="n">
-        <v>673694.4211</v>
+        <v>16.36999999999999</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
@@ -4934,6 +5015,7 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4955,7 +5037,7 @@
         <v>38800</v>
       </c>
       <c r="G113" t="n">
-        <v>634894.4211</v>
+        <v>16.38499999999999</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4969,6 +5051,7 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4990,13 +5073,13 @@
         <v>247430.5216</v>
       </c>
       <c r="G114" t="n">
-        <v>387463.8995000001</v>
+        <v>16.38999999999999</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
@@ -5004,6 +5087,7 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -5025,7 +5109,7 @@
         <v>208431.3118</v>
       </c>
       <c r="G115" t="n">
-        <v>387463.8995000001</v>
+        <v>16.38499999999999</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -5039,6 +5123,7 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5060,13 +5145,13 @@
         <v>185219.2127</v>
       </c>
       <c r="G116" t="n">
-        <v>202244.6868000001</v>
+        <v>16.37499999999999</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
@@ -5074,6 +5159,7 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5095,13 +5181,13 @@
         <v>5202</v>
       </c>
       <c r="G117" t="n">
-        <v>207446.6868000001</v>
+        <v>16.35999999999999</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
@@ -5109,6 +5195,7 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5130,13 +5217,13 @@
         <v>39000</v>
       </c>
       <c r="G118" t="n">
-        <v>207446.6868000001</v>
+        <v>16.34</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
@@ -5144,6 +5231,7 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5165,7 +5253,7 @@
         <v>55296.8378</v>
       </c>
       <c r="G119" t="n">
-        <v>207446.6868000001</v>
+        <v>16.32</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -5179,6 +5267,7 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5200,13 +5289,13 @@
         <v>48896.4785</v>
       </c>
       <c r="G120" t="n">
-        <v>207446.6868000001</v>
+        <v>16.29499999999999</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
@@ -5214,6 +5303,7 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5235,7 +5325,7 @@
         <v>75116.02499999999</v>
       </c>
       <c r="G121" t="n">
-        <v>207446.6868000001</v>
+        <v>16.28</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5249,6 +5339,7 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5270,13 +5361,13 @@
         <v>105982.4382</v>
       </c>
       <c r="G122" t="n">
-        <v>313429.1250000001</v>
+        <v>16.27</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
@@ -5284,6 +5375,7 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5305,7 +5397,7 @@
         <v>64472.932</v>
       </c>
       <c r="G123" t="n">
-        <v>313429.1250000001</v>
+        <v>16.26</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5319,6 +5411,7 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5340,13 +5433,13 @@
         <v>140278.4567</v>
       </c>
       <c r="G124" t="n">
-        <v>313429.1250000001</v>
+        <v>16.25</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
@@ -5354,6 +5447,7 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5375,7 +5469,7 @@
         <v>26408.3333</v>
       </c>
       <c r="G125" t="n">
-        <v>313429.1250000001</v>
+        <v>16.23</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5389,6 +5483,7 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5410,13 +5505,13 @@
         <v>50010</v>
       </c>
       <c r="G126" t="n">
-        <v>363439.1250000001</v>
+        <v>16.225</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
@@ -5424,6 +5519,7 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5445,7 +5541,7 @@
         <v>46100</v>
       </c>
       <c r="G127" t="n">
-        <v>317339.1250000001</v>
+        <v>16.215</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5459,6 +5555,7 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5480,13 +5577,13 @@
         <v>35217.5098</v>
       </c>
       <c r="G128" t="n">
-        <v>282121.6152000001</v>
+        <v>16.205</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
@@ -5494,6 +5591,7 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-29 BackTest MITH.xlsx
+++ b/BackTest/2019-10-29 BackTest MITH.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N128"/>
+  <dimension ref="A1:N157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="C2" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="D2" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="E2" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="F2" t="n">
-        <v>13942.3258</v>
+        <v>200</v>
       </c>
       <c r="G2" t="n">
-        <v>15.255</v>
+        <v>-296457.8058</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -477,19 +477,19 @@
         <v>15.2</v>
       </c>
       <c r="C3" t="n">
-        <v>15.4</v>
+        <v>15.2</v>
       </c>
       <c r="D3" t="n">
-        <v>15.4</v>
+        <v>15.2</v>
       </c>
       <c r="E3" t="n">
         <v>15.2</v>
       </c>
       <c r="F3" t="n">
-        <v>247046.4274</v>
+        <v>10</v>
       </c>
       <c r="G3" t="n">
-        <v>15.245</v>
+        <v>-296447.8058</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="C4" t="n">
-        <v>15.4</v>
+        <v>15.2</v>
       </c>
       <c r="D4" t="n">
-        <v>15.4</v>
+        <v>15.2</v>
       </c>
       <c r="E4" t="n">
         <v>15.2</v>
       </c>
       <c r="F4" t="n">
-        <v>209180.9987</v>
+        <v>51291.1184</v>
       </c>
       <c r="G4" t="n">
-        <v>15.24</v>
+        <v>-296447.8058</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>15.4</v>
+        <v>15.2</v>
       </c>
       <c r="C5" t="n">
-        <v>15.4</v>
+        <v>15.2</v>
       </c>
       <c r="D5" t="n">
-        <v>15.4</v>
+        <v>15.2</v>
       </c>
       <c r="E5" t="n">
-        <v>15.4</v>
+        <v>15.2</v>
       </c>
       <c r="F5" t="n">
-        <v>8000</v>
+        <v>13698.8816</v>
       </c>
       <c r="G5" t="n">
-        <v>15.24</v>
+        <v>-296447.8058</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,35 +582,31 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="C6" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="D6" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="E6" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="F6" t="n">
-        <v>55619.8228</v>
+        <v>225044.013</v>
       </c>
       <c r="G6" t="n">
-        <v>15.225</v>
+        <v>-71403.79279999997</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K6" t="n">
-        <v>15.4</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
@@ -622,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="C7" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="D7" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="E7" t="n">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="F7" t="n">
-        <v>10435.1664</v>
+        <v>12</v>
       </c>
       <c r="G7" t="n">
-        <v>15.215</v>
+        <v>-71391.79279999997</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -646,14 +642,8 @@
         <v>0</v>
       </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -664,40 +654,32 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="C8" t="n">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="D8" t="n">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="E8" t="n">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="F8" t="n">
-        <v>129286.4783</v>
+        <v>109968.8697</v>
       </c>
       <c r="G8" t="n">
-        <v>15.205</v>
+        <v>-71391.79279999997</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K8" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -708,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>15.1</v>
+        <v>15.4</v>
       </c>
       <c r="C9" t="n">
-        <v>15.1</v>
+        <v>15.5</v>
       </c>
       <c r="D9" t="n">
-        <v>15.1</v>
+        <v>15.5</v>
       </c>
       <c r="E9" t="n">
-        <v>15.1</v>
+        <v>15.4</v>
       </c>
       <c r="F9" t="n">
-        <v>1624.7647</v>
+        <v>56276.0032</v>
       </c>
       <c r="G9" t="n">
-        <v>15.2</v>
+        <v>-15115.78959999997</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -732,14 +714,8 @@
         <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -750,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>15.1</v>
+        <v>15.4</v>
       </c>
       <c r="C10" t="n">
-        <v>15.1</v>
+        <v>15.4</v>
       </c>
       <c r="D10" t="n">
-        <v>15.1</v>
+        <v>15.4</v>
       </c>
       <c r="E10" t="n">
-        <v>15.1</v>
+        <v>15.4</v>
       </c>
       <c r="F10" t="n">
-        <v>53893.7319</v>
+        <v>2500</v>
       </c>
       <c r="G10" t="n">
-        <v>15.195</v>
+        <v>-17615.78959999997</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -774,14 +750,8 @@
         <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -792,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>15.1</v>
+        <v>15.4</v>
       </c>
       <c r="C11" t="n">
-        <v>15.1</v>
+        <v>15.4</v>
       </c>
       <c r="D11" t="n">
-        <v>15.1</v>
+        <v>15.4</v>
       </c>
       <c r="E11" t="n">
-        <v>15.1</v>
+        <v>15.4</v>
       </c>
       <c r="F11" t="n">
-        <v>105073.5784</v>
+        <v>50000</v>
       </c>
       <c r="G11" t="n">
-        <v>15.19000000000001</v>
+        <v>-17615.78959999997</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -816,14 +786,8 @@
         <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -834,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>15.1</v>
+        <v>15.4</v>
       </c>
       <c r="C12" t="n">
-        <v>15.1</v>
+        <v>15.5</v>
       </c>
       <c r="D12" t="n">
-        <v>15.1</v>
+        <v>15.5</v>
       </c>
       <c r="E12" t="n">
-        <v>15.1</v>
+        <v>15.4</v>
       </c>
       <c r="F12" t="n">
-        <v>13200</v>
+        <v>51303.6784</v>
       </c>
       <c r="G12" t="n">
-        <v>15.18500000000001</v>
+        <v>33687.88880000003</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -858,14 +822,8 @@
         <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -876,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>15.1</v>
+        <v>15.4</v>
       </c>
       <c r="C13" t="n">
-        <v>15.1</v>
+        <v>15.4</v>
       </c>
       <c r="D13" t="n">
-        <v>15.1</v>
+        <v>15.4</v>
       </c>
       <c r="E13" t="n">
-        <v>15.1</v>
+        <v>15.4</v>
       </c>
       <c r="F13" t="n">
-        <v>3100</v>
+        <v>13664.6344</v>
       </c>
       <c r="G13" t="n">
-        <v>15.18000000000001</v>
+        <v>20023.25440000003</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -900,14 +858,8 @@
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -918,22 +870,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>15.1</v>
+        <v>15.4</v>
       </c>
       <c r="C14" t="n">
-        <v>15.1</v>
+        <v>15.5</v>
       </c>
       <c r="D14" t="n">
-        <v>15.1</v>
+        <v>15.5</v>
       </c>
       <c r="E14" t="n">
-        <v>15.1</v>
+        <v>15.4</v>
       </c>
       <c r="F14" t="n">
-        <v>5314.6357</v>
+        <v>16893.6569</v>
       </c>
       <c r="G14" t="n">
-        <v>15.18000000000001</v>
+        <v>36916.91130000003</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -942,14 +894,8 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -960,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>15</v>
+        <v>15.4</v>
       </c>
       <c r="C15" t="n">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="D15" t="n">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="E15" t="n">
-        <v>15</v>
+        <v>15.4</v>
       </c>
       <c r="F15" t="n">
-        <v>255160.2415</v>
+        <v>3049.224</v>
       </c>
       <c r="G15" t="n">
-        <v>15.17500000000001</v>
+        <v>33867.68730000003</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -984,14 +930,8 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1002,22 +942,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>15.1</v>
+        <v>15.4</v>
       </c>
       <c r="C16" t="n">
-        <v>15.1</v>
+        <v>15.4</v>
       </c>
       <c r="D16" t="n">
-        <v>15.1</v>
+        <v>15.4</v>
       </c>
       <c r="E16" t="n">
-        <v>15.1</v>
+        <v>15.4</v>
       </c>
       <c r="F16" t="n">
-        <v>53.15</v>
+        <v>3400.405</v>
       </c>
       <c r="G16" t="n">
-        <v>15.17500000000001</v>
+        <v>33867.68730000003</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1026,14 +966,8 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1044,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>15.1</v>
+        <v>15.4</v>
       </c>
       <c r="C17" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="D17" t="n">
-        <v>15.1</v>
+        <v>15.4</v>
       </c>
       <c r="E17" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="F17" t="n">
-        <v>6486.1328</v>
+        <v>86037.91220000001</v>
       </c>
       <c r="G17" t="n">
-        <v>15.16500000000001</v>
+        <v>-52170.22489999998</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1068,14 +1002,8 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1086,40 +1014,32 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="C18" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="D18" t="n">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="E18" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="F18" t="n">
-        <v>2278.8669</v>
+        <v>390531.7902</v>
       </c>
       <c r="G18" t="n">
-        <v>15.16000000000001</v>
+        <v>-442702.0151</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K18" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1133,19 +1053,19 @@
         <v>15.2</v>
       </c>
       <c r="C19" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="D19" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="E19" t="n">
         <v>15.2</v>
       </c>
       <c r="F19" t="n">
-        <v>100</v>
+        <v>27545</v>
       </c>
       <c r="G19" t="n">
-        <v>15.16500000000001</v>
+        <v>-415157.0151</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1154,14 +1074,8 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1172,22 +1086,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="C20" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="D20" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="E20" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="F20" t="n">
-        <v>50000</v>
+        <v>40000</v>
       </c>
       <c r="G20" t="n">
-        <v>15.16000000000001</v>
+        <v>-415157.0151</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1196,14 +1110,8 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1214,22 +1122,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="C21" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="D21" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="E21" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="F21" t="n">
-        <v>9158.088299999999</v>
+        <v>10550.7631</v>
       </c>
       <c r="G21" t="n">
-        <v>15.14500000000001</v>
+        <v>-425707.7781999999</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1238,14 +1146,8 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1256,22 +1158,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="C22" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="D22" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="E22" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="F22" t="n">
-        <v>67998.54059999999</v>
+        <v>2617.1316</v>
       </c>
       <c r="G22" t="n">
-        <v>15.13500000000001</v>
+        <v>-425707.7781999999</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1280,14 +1182,8 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1310,10 +1206,10 @@
         <v>15.1</v>
       </c>
       <c r="F23" t="n">
-        <v>5817.8256</v>
+        <v>15416.3181</v>
       </c>
       <c r="G23" t="n">
-        <v>15.13000000000001</v>
+        <v>-441124.0962999999</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1322,14 +1218,8 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1340,40 +1230,32 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="C24" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="D24" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="E24" t="n">
         <v>15.1</v>
       </c>
       <c r="F24" t="n">
-        <v>129953.6775</v>
+        <v>17491.3683</v>
       </c>
       <c r="G24" t="n">
-        <v>15.12500000000001</v>
+        <v>-441124.0962999999</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K24" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1384,38 +1266,36 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="C25" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="D25" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="E25" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="F25" t="n">
-        <v>295730.4961</v>
+        <v>168466.6738</v>
       </c>
       <c r="G25" t="n">
-        <v>15.11500000000001</v>
+        <v>-441124.0962999999</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K25" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>15.1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1426,22 +1306,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="C26" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="D26" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="E26" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="F26" t="n">
-        <v>14030</v>
+        <v>200</v>
       </c>
       <c r="G26" t="n">
-        <v>15.12000000000001</v>
+        <v>-440924.0962999999</v>
       </c>
       <c r="H26" t="n">
         <v>1</v>
@@ -1450,14 +1330,14 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="K26" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M26" t="n">
@@ -1470,36 +1350,38 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="C27" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="D27" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="E27" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="F27" t="n">
-        <v>109.7637</v>
+        <v>271616.082</v>
       </c>
       <c r="G27" t="n">
-        <v>15.12000000000001</v>
+        <v>-712540.1782999999</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>15.3</v>
+      </c>
       <c r="K27" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M27" t="n">
@@ -1512,38 +1394,36 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="C28" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="D28" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="E28" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="F28" t="n">
-        <v>548.131</v>
+        <v>28.6706</v>
       </c>
       <c r="G28" t="n">
-        <v>15.12000000000001</v>
+        <v>-712540.1782999999</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K28" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>15.1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1557,33 +1437,35 @@
         <v>15.2</v>
       </c>
       <c r="C29" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="D29" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="E29" t="n">
         <v>15.2</v>
       </c>
       <c r="F29" t="n">
-        <v>365.4186</v>
+        <v>65276.2639</v>
       </c>
       <c r="G29" t="n">
-        <v>15.12500000000001</v>
+        <v>-647263.9143999999</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K29" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M29" t="n">
@@ -1596,36 +1478,38 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="C30" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="D30" t="n">
-        <v>15.3</v>
+        <v>15.5</v>
       </c>
       <c r="E30" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="F30" t="n">
-        <v>104759.1666</v>
+        <v>99484.0287</v>
       </c>
       <c r="G30" t="n">
-        <v>15.13500000000001</v>
+        <v>-547779.8856999999</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>15.3</v>
+      </c>
       <c r="K30" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M30" t="n">
@@ -1638,22 +1522,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="C31" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="D31" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="E31" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="F31" t="n">
-        <v>1324.8738</v>
+        <v>13942.3258</v>
       </c>
       <c r="G31" t="n">
-        <v>15.14000000000001</v>
+        <v>-561722.2114999999</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1662,14 +1546,8 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1683,19 +1561,19 @@
         <v>15.2</v>
       </c>
       <c r="C32" t="n">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="D32" t="n">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="E32" t="n">
         <v>15.2</v>
       </c>
       <c r="F32" t="n">
-        <v>9000</v>
+        <v>247046.4274</v>
       </c>
       <c r="G32" t="n">
-        <v>15.145</v>
+        <v>-314675.7840999999</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1704,14 +1582,8 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1722,22 +1594,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="C33" t="n">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="D33" t="n">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="E33" t="n">
         <v>15.2</v>
       </c>
       <c r="F33" t="n">
-        <v>190289.4279</v>
+        <v>209180.9987</v>
       </c>
       <c r="G33" t="n">
-        <v>15.15</v>
+        <v>-314675.7840999999</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1746,14 +1618,8 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1764,22 +1630,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="C34" t="n">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="D34" t="n">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="E34" t="n">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="F34" t="n">
-        <v>5965</v>
+        <v>8000</v>
       </c>
       <c r="G34" t="n">
-        <v>15.155</v>
+        <v>-314675.7840999999</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1788,14 +1654,8 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1806,22 +1666,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="C35" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="D35" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="E35" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="F35" t="n">
-        <v>13700</v>
+        <v>55619.8228</v>
       </c>
       <c r="G35" t="n">
-        <v>15.165</v>
+        <v>-370295.6068999999</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1830,14 +1690,8 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1851,19 +1705,19 @@
         <v>15.2</v>
       </c>
       <c r="C36" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="D36" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="E36" t="n">
         <v>15.2</v>
       </c>
       <c r="F36" t="n">
-        <v>25800</v>
+        <v>10435.1664</v>
       </c>
       <c r="G36" t="n">
-        <v>15.17</v>
+        <v>-359860.4404999999</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1872,14 +1726,8 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1902,10 +1750,10 @@
         <v>15.2</v>
       </c>
       <c r="F37" t="n">
-        <v>28500</v>
+        <v>129286.4783</v>
       </c>
       <c r="G37" t="n">
-        <v>15.175</v>
+        <v>-489146.9187999999</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1914,14 +1762,8 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1932,22 +1774,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="C38" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="D38" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="E38" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="F38" t="n">
-        <v>37060</v>
+        <v>1624.7647</v>
       </c>
       <c r="G38" t="n">
-        <v>15.185</v>
+        <v>-490771.6834999999</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1956,14 +1798,8 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1974,22 +1810,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="C39" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="D39" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="E39" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="F39" t="n">
-        <v>648.3968</v>
+        <v>53893.7319</v>
       </c>
       <c r="G39" t="n">
-        <v>15.185</v>
+        <v>-490771.6834999999</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1998,14 +1834,8 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -2016,22 +1846,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="C40" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="D40" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="E40" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="F40" t="n">
-        <v>50000</v>
+        <v>105073.5784</v>
       </c>
       <c r="G40" t="n">
-        <v>15.195</v>
+        <v>-490771.6834999999</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2040,14 +1870,8 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2058,22 +1882,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="C41" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="D41" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="E41" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="F41" t="n">
-        <v>4334.6129</v>
+        <v>13200</v>
       </c>
       <c r="G41" t="n">
-        <v>15.20499999999999</v>
+        <v>-490771.6834999999</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2082,14 +1906,8 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2100,38 +1918,36 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="C42" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="D42" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="E42" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="F42" t="n">
-        <v>158638</v>
+        <v>3100</v>
       </c>
       <c r="G42" t="n">
-        <v>15.21999999999999</v>
+        <v>-490771.6834999999</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K42" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>15.1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2142,36 +1958,38 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="C43" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="D43" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="E43" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="F43" t="n">
-        <v>10000</v>
+        <v>5314.6357</v>
       </c>
       <c r="G43" t="n">
-        <v>15.23499999999999</v>
+        <v>-490771.6834999999</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K43" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M43" t="n">
@@ -2184,36 +2002,38 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>15.4</v>
+        <v>15</v>
       </c>
       <c r="C44" t="n">
-        <v>15.4</v>
+        <v>15.2</v>
       </c>
       <c r="D44" t="n">
-        <v>15.4</v>
+        <v>15.2</v>
       </c>
       <c r="E44" t="n">
-        <v>15.4</v>
+        <v>15</v>
       </c>
       <c r="F44" t="n">
-        <v>8087.4025</v>
+        <v>255160.2415</v>
       </c>
       <c r="G44" t="n">
-        <v>15.24499999999999</v>
+        <v>-235611.4419999999</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K44" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M44" t="n">
@@ -2226,32 +2046,34 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="C45" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="D45" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="E45" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="F45" t="n">
-        <v>37592.1476</v>
+        <v>53.15</v>
       </c>
       <c r="G45" t="n">
-        <v>15.24999999999999</v>
+        <v>-235664.5919999999</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K45" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
@@ -2268,22 +2090,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="C46" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="D46" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="E46" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="F46" t="n">
-        <v>195265.8951</v>
+        <v>6486.1328</v>
       </c>
       <c r="G46" t="n">
-        <v>15.25499999999999</v>
+        <v>-235664.5919999999</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2293,7 +2115,7 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
@@ -2310,22 +2132,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>15.3</v>
+        <v>15</v>
       </c>
       <c r="C47" t="n">
-        <v>15.3</v>
+        <v>15</v>
       </c>
       <c r="D47" t="n">
-        <v>15.3</v>
+        <v>15</v>
       </c>
       <c r="E47" t="n">
-        <v>15.3</v>
+        <v>15</v>
       </c>
       <c r="F47" t="n">
-        <v>272.702</v>
+        <v>2278.8669</v>
       </c>
       <c r="G47" t="n">
-        <v>15.25999999999999</v>
+        <v>-237943.4588999999</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2335,7 +2157,7 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
@@ -2352,22 +2174,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="C48" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="D48" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="E48" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="F48" t="n">
-        <v>81929.79459999999</v>
+        <v>100</v>
       </c>
       <c r="G48" t="n">
-        <v>15.265</v>
+        <v>-237843.4588999999</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2377,7 +2199,7 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
@@ -2394,22 +2216,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="C49" t="n">
         <v>15.1</v>
       </c>
       <c r="D49" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="E49" t="n">
         <v>15.1</v>
       </c>
       <c r="F49" t="n">
-        <v>40964.8973</v>
+        <v>50000</v>
       </c>
       <c r="G49" t="n">
-        <v>15.265</v>
+        <v>-287843.4588999999</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2419,7 +2241,7 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
@@ -2436,32 +2258,34 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="C50" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="D50" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="E50" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="F50" t="n">
-        <v>143.0194</v>
+        <v>9158.088299999999</v>
       </c>
       <c r="G50" t="n">
-        <v>15.26999999999999</v>
+        <v>-287843.4588999999</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K50" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
@@ -2478,32 +2302,34 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="C51" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="D51" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="E51" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="F51" t="n">
-        <v>288.8961</v>
+        <v>67998.54059999999</v>
       </c>
       <c r="G51" t="n">
-        <v>15.27999999999999</v>
+        <v>-287843.4588999999</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K51" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
@@ -2520,32 +2346,34 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="C52" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="D52" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="E52" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="F52" t="n">
-        <v>13506.4935</v>
+        <v>5817.8256</v>
       </c>
       <c r="G52" t="n">
-        <v>15.28999999999999</v>
+        <v>-287843.4588999999</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K52" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
@@ -2562,32 +2390,34 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>15.4</v>
+        <v>15.2</v>
       </c>
       <c r="C53" t="n">
-        <v>15.4</v>
+        <v>15.2</v>
       </c>
       <c r="D53" t="n">
-        <v>15.4</v>
+        <v>15.2</v>
       </c>
       <c r="E53" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="F53" t="n">
-        <v>14100</v>
+        <v>129953.6775</v>
       </c>
       <c r="G53" t="n">
-        <v>15.29999999999999</v>
+        <v>-157889.7813999999</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K53" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
@@ -2604,32 +2434,34 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>15.4</v>
+        <v>15.2</v>
       </c>
       <c r="C54" t="n">
-        <v>15.4</v>
+        <v>15.2</v>
       </c>
       <c r="D54" t="n">
-        <v>15.4</v>
+        <v>15.2</v>
       </c>
       <c r="E54" t="n">
-        <v>15.4</v>
+        <v>15.2</v>
       </c>
       <c r="F54" t="n">
-        <v>17158.8571</v>
+        <v>295730.4961</v>
       </c>
       <c r="G54" t="n">
-        <v>15.30999999999999</v>
+        <v>-157889.7813999999</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K54" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
@@ -2646,32 +2478,34 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="C55" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="D55" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="E55" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="F55" t="n">
-        <v>109360.3289</v>
+        <v>14030</v>
       </c>
       <c r="G55" t="n">
-        <v>15.31499999999999</v>
+        <v>-157889.7813999999</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K55" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
@@ -2688,32 +2522,34 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="C56" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="D56" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="E56" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="F56" t="n">
-        <v>26438.6666</v>
+        <v>109.7637</v>
       </c>
       <c r="G56" t="n">
-        <v>15.31999999999999</v>
+        <v>-157889.7813999999</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K56" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
@@ -2730,32 +2566,34 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="C57" t="n">
         <v>15.2</v>
       </c>
       <c r="D57" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="E57" t="n">
         <v>15.2</v>
       </c>
       <c r="F57" t="n">
-        <v>128886.0492</v>
+        <v>548.131</v>
       </c>
       <c r="G57" t="n">
-        <v>15.32499999999999</v>
+        <v>-157889.7813999999</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K57" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
@@ -2772,22 +2610,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="C58" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="D58" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="E58" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="F58" t="n">
-        <v>6317</v>
+        <v>365.4186</v>
       </c>
       <c r="G58" t="n">
-        <v>15.32999999999999</v>
+        <v>-157889.7813999999</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2797,7 +2635,7 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
@@ -2826,10 +2664,10 @@
         <v>15.3</v>
       </c>
       <c r="F59" t="n">
-        <v>26600</v>
+        <v>104759.1666</v>
       </c>
       <c r="G59" t="n">
-        <v>15.335</v>
+        <v>-53130.61479999992</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2839,7 +2677,7 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
@@ -2868,10 +2706,10 @@
         <v>15.2</v>
       </c>
       <c r="F60" t="n">
-        <v>112283.7208</v>
+        <v>1324.8738</v>
       </c>
       <c r="G60" t="n">
-        <v>15.32999999999999</v>
+        <v>-54455.48859999992</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2881,7 +2719,7 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
@@ -2910,10 +2748,10 @@
         <v>15.2</v>
       </c>
       <c r="F61" t="n">
-        <v>2482.8592</v>
+        <v>9000</v>
       </c>
       <c r="G61" t="n">
-        <v>15.32499999999999</v>
+        <v>-54455.48859999992</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2923,7 +2761,7 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
@@ -2940,34 +2778,32 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="C62" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="D62" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="E62" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="F62" t="n">
-        <v>72074.44439999999</v>
+        <v>190289.4279</v>
       </c>
       <c r="G62" t="n">
-        <v>15.32</v>
+        <v>-54455.48859999992</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>15.2</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
@@ -2987,31 +2823,29 @@
         <v>15.2</v>
       </c>
       <c r="C63" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="D63" t="n">
         <v>15.2</v>
       </c>
       <c r="E63" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="F63" t="n">
-        <v>133392.2091</v>
+        <v>5965</v>
       </c>
       <c r="G63" t="n">
-        <v>15.31</v>
+        <v>-54455.48859999992</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
@@ -3028,34 +2862,32 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="C64" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="D64" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="E64" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="F64" t="n">
-        <v>7042.6138</v>
+        <v>13700</v>
       </c>
       <c r="G64" t="n">
-        <v>15.295</v>
+        <v>-54455.48859999992</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
@@ -3072,34 +2904,32 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="C65" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="D65" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="E65" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="F65" t="n">
-        <v>196221.7647</v>
+        <v>25800</v>
       </c>
       <c r="G65" t="n">
-        <v>15.295</v>
+        <v>-54455.48859999992</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
@@ -3128,10 +2958,10 @@
         <v>15.2</v>
       </c>
       <c r="F66" t="n">
-        <v>51900</v>
+        <v>28500</v>
       </c>
       <c r="G66" t="n">
-        <v>15.29</v>
+        <v>-54455.48859999992</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3141,7 +2971,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
@@ -3170,10 +3000,10 @@
         <v>15.2</v>
       </c>
       <c r="F67" t="n">
-        <v>50000</v>
+        <v>37060</v>
       </c>
       <c r="G67" t="n">
-        <v>15.285</v>
+        <v>-54455.48859999992</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3183,7 +3013,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
@@ -3200,22 +3030,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="C68" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="D68" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="E68" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="F68" t="n">
-        <v>29541.3071</v>
+        <v>648.3968</v>
       </c>
       <c r="G68" t="n">
-        <v>15.285</v>
+        <v>-54455.48859999992</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3225,7 +3055,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
@@ -3242,22 +3072,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="C69" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="D69" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="E69" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="F69" t="n">
-        <v>20</v>
+        <v>50000</v>
       </c>
       <c r="G69" t="n">
-        <v>15.295</v>
+        <v>-4455.488599999924</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3267,7 +3097,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
@@ -3284,22 +3114,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="C70" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="D70" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="E70" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="F70" t="n">
-        <v>107212.1815</v>
+        <v>4334.6129</v>
       </c>
       <c r="G70" t="n">
-        <v>15.295</v>
+        <v>-4455.488599999924</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3309,7 +3139,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
@@ -3326,22 +3156,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="C71" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="D71" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="E71" t="n">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="F71" t="n">
-        <v>54900</v>
+        <v>158638</v>
       </c>
       <c r="G71" t="n">
-        <v>15.285</v>
+        <v>154182.5114000001</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3351,7 +3181,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
@@ -3368,22 +3198,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="C72" t="n">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="D72" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="E72" t="n">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="F72" t="n">
-        <v>51000</v>
+        <v>10000</v>
       </c>
       <c r="G72" t="n">
-        <v>15.28</v>
+        <v>154182.5114000001</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3393,7 +3223,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
@@ -3413,31 +3243,29 @@
         <v>15.4</v>
       </c>
       <c r="C73" t="n">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="D73" t="n">
         <v>15.4</v>
       </c>
       <c r="E73" t="n">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="F73" t="n">
-        <v>101756.7532467532</v>
+        <v>8087.4025</v>
       </c>
       <c r="G73" t="n">
-        <v>15.28</v>
+        <v>154182.5114000001</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>15.2</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
@@ -3454,34 +3282,32 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="C74" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="D74" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="E74" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="F74" t="n">
-        <v>20482.4487</v>
+        <v>37592.1476</v>
       </c>
       <c r="G74" t="n">
-        <v>15.27</v>
+        <v>116590.3638000001</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>15.2</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
@@ -3501,31 +3327,29 @@
         <v>15.3</v>
       </c>
       <c r="C75" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="D75" t="n">
         <v>15.3</v>
       </c>
       <c r="E75" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="F75" t="n">
-        <v>13344.711</v>
+        <v>195265.8951</v>
       </c>
       <c r="G75" t="n">
-        <v>15.27</v>
+        <v>-78675.53129999992</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>15.2</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
@@ -3542,22 +3366,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="C76" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="D76" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="E76" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="F76" t="n">
-        <v>115378.8643</v>
+        <v>272.702</v>
       </c>
       <c r="G76" t="n">
-        <v>15.265</v>
+        <v>-78402.82929999991</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3567,7 +3391,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
@@ -3584,22 +3408,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="C77" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="D77" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="E77" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="F77" t="n">
-        <v>42045.141</v>
+        <v>81929.79459999999</v>
       </c>
       <c r="G77" t="n">
-        <v>15.26</v>
+        <v>-160332.6238999999</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3609,7 +3433,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
@@ -3629,19 +3453,19 @@
         <v>15.2</v>
       </c>
       <c r="C78" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="D78" t="n">
         <v>15.2</v>
       </c>
       <c r="E78" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="F78" t="n">
-        <v>5515</v>
+        <v>40964.8973</v>
       </c>
       <c r="G78" t="n">
-        <v>15.255</v>
+        <v>-160332.6238999999</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3651,7 +3475,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
@@ -3668,22 +3492,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="C79" t="n">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="D79" t="n">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="E79" t="n">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="F79" t="n">
-        <v>48605</v>
+        <v>143.0194</v>
       </c>
       <c r="G79" t="n">
-        <v>15.24999999999999</v>
+        <v>-160189.6044999999</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3693,7 +3517,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
@@ -3710,22 +3534,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="C80" t="n">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="D80" t="n">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="E80" t="n">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="F80" t="n">
-        <v>24545</v>
+        <v>288.8961</v>
       </c>
       <c r="G80" t="n">
-        <v>15.24999999999999</v>
+        <v>-160189.6044999999</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3735,7 +3559,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
@@ -3752,22 +3576,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="C81" t="n">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="D81" t="n">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="E81" t="n">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="F81" t="n">
-        <v>27600</v>
+        <v>13506.4935</v>
       </c>
       <c r="G81" t="n">
-        <v>15.24999999999999</v>
+        <v>-160189.6044999999</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3777,7 +3601,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
@@ -3794,34 +3618,32 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="C82" t="n">
-        <v>15.1</v>
+        <v>15.4</v>
       </c>
       <c r="D82" t="n">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="E82" t="n">
-        <v>15.1</v>
+        <v>15.4</v>
       </c>
       <c r="F82" t="n">
-        <v>7582.003</v>
+        <v>14100</v>
       </c>
       <c r="G82" t="n">
-        <v>15.24499999999999</v>
+        <v>-160189.6044999999</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>15.2</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
@@ -3838,22 +3660,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="C83" t="n">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="D83" t="n">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="E83" t="n">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="F83" t="n">
-        <v>50554.577</v>
+        <v>17158.8571</v>
       </c>
       <c r="G83" t="n">
-        <v>15.24499999999999</v>
+        <v>-160189.6044999999</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3863,7 +3685,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
@@ -3880,22 +3702,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="C84" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="D84" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="E84" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="F84" t="n">
-        <v>6578.9473</v>
+        <v>109360.3289</v>
       </c>
       <c r="G84" t="n">
-        <v>15.24999999999999</v>
+        <v>-269549.9333999999</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3905,7 +3727,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
@@ -3922,22 +3744,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="C85" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="D85" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="E85" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="F85" t="n">
-        <v>1888.5549</v>
+        <v>26438.6666</v>
       </c>
       <c r="G85" t="n">
-        <v>15.24499999999999</v>
+        <v>-269549.9333999999</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3947,7 +3769,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
@@ -3964,22 +3786,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="C86" t="n">
-        <v>15.4</v>
+        <v>15.2</v>
       </c>
       <c r="D86" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="E86" t="n">
-        <v>15.4</v>
+        <v>15.2</v>
       </c>
       <c r="F86" t="n">
-        <v>32512.0625</v>
+        <v>128886.0492</v>
       </c>
       <c r="G86" t="n">
-        <v>15.25499999999999</v>
+        <v>-398435.9825999999</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3989,7 +3811,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
@@ -4006,22 +3828,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>15.5</v>
+        <v>15.3</v>
       </c>
       <c r="C87" t="n">
-        <v>15.5</v>
+        <v>15.3</v>
       </c>
       <c r="D87" t="n">
-        <v>15.5</v>
+        <v>15.3</v>
       </c>
       <c r="E87" t="n">
-        <v>15.5</v>
+        <v>15.3</v>
       </c>
       <c r="F87" t="n">
-        <v>10</v>
+        <v>6317</v>
       </c>
       <c r="G87" t="n">
-        <v>15.26999999999999</v>
+        <v>-392118.9825999999</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -4031,7 +3853,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
@@ -4051,19 +3873,19 @@
         <v>15.3</v>
       </c>
       <c r="C88" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="D88" t="n">
         <v>15.3</v>
       </c>
       <c r="E88" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="F88" t="n">
-        <v>236615</v>
+        <v>26600</v>
       </c>
       <c r="G88" t="n">
-        <v>15.26999999999999</v>
+        <v>-392118.9825999999</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -4073,7 +3895,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
@@ -4090,32 +3912,34 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>15.5</v>
+        <v>15.2</v>
       </c>
       <c r="C89" t="n">
-        <v>15.6</v>
+        <v>15.2</v>
       </c>
       <c r="D89" t="n">
-        <v>15.6</v>
+        <v>15.2</v>
       </c>
       <c r="E89" t="n">
-        <v>15.5</v>
+        <v>15.2</v>
       </c>
       <c r="F89" t="n">
-        <v>170868</v>
+        <v>112283.7208</v>
       </c>
       <c r="G89" t="n">
-        <v>15.27499999999999</v>
+        <v>-504402.7033999999</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>15.3</v>
+      </c>
       <c r="K89" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
@@ -4132,32 +3956,34 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>15.6</v>
+        <v>15.2</v>
       </c>
       <c r="C90" t="n">
-        <v>15.9</v>
+        <v>15.2</v>
       </c>
       <c r="D90" t="n">
-        <v>15.9</v>
+        <v>15.2</v>
       </c>
       <c r="E90" t="n">
-        <v>15.6</v>
+        <v>15.2</v>
       </c>
       <c r="F90" t="n">
-        <v>190000</v>
+        <v>2482.8592</v>
       </c>
       <c r="G90" t="n">
-        <v>15.28499999999999</v>
+        <v>-504402.7033999999</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K90" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
@@ -4174,32 +4000,34 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>15.9</v>
+        <v>15.3</v>
       </c>
       <c r="C91" t="n">
-        <v>15.9</v>
+        <v>15.3</v>
       </c>
       <c r="D91" t="n">
-        <v>15.9</v>
+        <v>15.3</v>
       </c>
       <c r="E91" t="n">
-        <v>15.9</v>
+        <v>15.3</v>
       </c>
       <c r="F91" t="n">
-        <v>143991.3958</v>
+        <v>72074.44439999999</v>
       </c>
       <c r="G91" t="n">
-        <v>15.31999999999999</v>
+        <v>-432328.2589999999</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K91" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
@@ -4216,32 +4044,34 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>16</v>
+        <v>15.2</v>
       </c>
       <c r="C92" t="n">
-        <v>16</v>
+        <v>15.1</v>
       </c>
       <c r="D92" t="n">
-        <v>16</v>
+        <v>15.2</v>
       </c>
       <c r="E92" t="n">
-        <v>16</v>
+        <v>15.1</v>
       </c>
       <c r="F92" t="n">
-        <v>64600</v>
+        <v>133392.2091</v>
       </c>
       <c r="G92" t="n">
-        <v>15.35499999999999</v>
+        <v>-565720.4680999999</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>15.3</v>
+      </c>
       <c r="K92" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
@@ -4258,32 +4088,34 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>16</v>
+        <v>15.1</v>
       </c>
       <c r="C93" t="n">
-        <v>16.2</v>
+        <v>15.1</v>
       </c>
       <c r="D93" t="n">
-        <v>16.2</v>
+        <v>15.1</v>
       </c>
       <c r="E93" t="n">
-        <v>16</v>
+        <v>15.1</v>
       </c>
       <c r="F93" t="n">
-        <v>267267.8856</v>
+        <v>7042.6138</v>
       </c>
       <c r="G93" t="n">
-        <v>15.38499999999999</v>
+        <v>-565720.4680999999</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K93" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
@@ -4300,32 +4132,34 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>16.1</v>
+        <v>15.3</v>
       </c>
       <c r="C94" t="n">
-        <v>16.2</v>
+        <v>15.3</v>
       </c>
       <c r="D94" t="n">
-        <v>16.2</v>
+        <v>15.3</v>
       </c>
       <c r="E94" t="n">
-        <v>16.1</v>
+        <v>15.3</v>
       </c>
       <c r="F94" t="n">
-        <v>39639.6796</v>
+        <v>196221.7647</v>
       </c>
       <c r="G94" t="n">
-        <v>15.43</v>
+        <v>-369498.7033999999</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K94" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
@@ -4342,22 +4176,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>16.2</v>
+        <v>15.2</v>
       </c>
       <c r="C95" t="n">
-        <v>16.2</v>
+        <v>15.2</v>
       </c>
       <c r="D95" t="n">
-        <v>16.3</v>
+        <v>15.2</v>
       </c>
       <c r="E95" t="n">
-        <v>16.2</v>
+        <v>15.2</v>
       </c>
       <c r="F95" t="n">
-        <v>190413.3</v>
+        <v>51900</v>
       </c>
       <c r="G95" t="n">
-        <v>15.47499999999999</v>
+        <v>-421398.7033999999</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4367,7 +4201,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
@@ -4384,32 +4218,34 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>16.2</v>
+        <v>15.2</v>
       </c>
       <c r="C96" t="n">
-        <v>16.1</v>
+        <v>15.2</v>
       </c>
       <c r="D96" t="n">
-        <v>16.3</v>
+        <v>15.2</v>
       </c>
       <c r="E96" t="n">
-        <v>16.1</v>
+        <v>15.2</v>
       </c>
       <c r="F96" t="n">
-        <v>225425.4704</v>
+        <v>50000</v>
       </c>
       <c r="G96" t="n">
-        <v>15.525</v>
+        <v>-421398.7033999999</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K96" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
@@ -4426,32 +4262,34 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>16.3</v>
+        <v>15.3</v>
       </c>
       <c r="C97" t="n">
-        <v>16.5</v>
+        <v>15.3</v>
       </c>
       <c r="D97" t="n">
-        <v>16.5</v>
+        <v>15.3</v>
       </c>
       <c r="E97" t="n">
-        <v>16.3</v>
+        <v>15.3</v>
       </c>
       <c r="F97" t="n">
-        <v>190471</v>
+        <v>29541.3071</v>
       </c>
       <c r="G97" t="n">
-        <v>15.57999999999999</v>
+        <v>-391857.3963</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K97" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
@@ -4468,32 +4306,34 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>16.5</v>
+        <v>15.4</v>
       </c>
       <c r="C98" t="n">
-        <v>16.6</v>
+        <v>15.2</v>
       </c>
       <c r="D98" t="n">
-        <v>16.6</v>
+        <v>15.4</v>
       </c>
       <c r="E98" t="n">
-        <v>16.5</v>
+        <v>15.2</v>
       </c>
       <c r="F98" t="n">
-        <v>1020349.4199</v>
+        <v>20</v>
       </c>
       <c r="G98" t="n">
-        <v>15.645</v>
+        <v>-391877.3963</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>15.3</v>
+      </c>
       <c r="K98" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="L98" t="inlineStr">
         <is>
@@ -4510,76 +4350,84 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>16.5</v>
+        <v>15.4</v>
       </c>
       <c r="C99" t="n">
-        <v>16.6</v>
+        <v>15.2</v>
       </c>
       <c r="D99" t="n">
-        <v>16.6</v>
+        <v>15.4</v>
       </c>
       <c r="E99" t="n">
-        <v>16.5</v>
+        <v>15.2</v>
       </c>
       <c r="F99" t="n">
-        <v>654155.1551</v>
+        <v>107212.1815</v>
       </c>
       <c r="G99" t="n">
-        <v>15.71</v>
+        <v>-391877.3963</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K99" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M99" t="n">
-        <v>1.072922077922078</v>
-      </c>
-      <c r="N99" t="n">
-        <v>1.019867549668874</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>16.6</v>
+        <v>15.2</v>
       </c>
       <c r="C100" t="n">
-        <v>16.3</v>
+        <v>15.3</v>
       </c>
       <c r="D100" t="n">
-        <v>16.7</v>
+        <v>15.3</v>
       </c>
       <c r="E100" t="n">
-        <v>16.3</v>
+        <v>15.2</v>
       </c>
       <c r="F100" t="n">
-        <v>405142.0102</v>
+        <v>54900</v>
       </c>
       <c r="G100" t="n">
-        <v>15.78</v>
+        <v>-336977.3963</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J100" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K100" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4590,32 +4438,38 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>16.4</v>
+        <v>15.3</v>
       </c>
       <c r="C101" t="n">
-        <v>16.4</v>
+        <v>15.2</v>
       </c>
       <c r="D101" t="n">
-        <v>16.4</v>
+        <v>15.3</v>
       </c>
       <c r="E101" t="n">
-        <v>16.3</v>
+        <v>15.2</v>
       </c>
       <c r="F101" t="n">
-        <v>261163.9175</v>
+        <v>51000</v>
       </c>
       <c r="G101" t="n">
-        <v>15.84</v>
+        <v>-387977.3963</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4626,32 +4480,40 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>16.4</v>
+        <v>15.4</v>
       </c>
       <c r="C102" t="n">
-        <v>16.4</v>
+        <v>15.2</v>
       </c>
       <c r="D102" t="n">
-        <v>16.5</v>
+        <v>15.4</v>
       </c>
       <c r="E102" t="n">
-        <v>16.3</v>
+        <v>15.2</v>
       </c>
       <c r="F102" t="n">
-        <v>143197.4809</v>
+        <v>101756.7532467532</v>
       </c>
       <c r="G102" t="n">
-        <v>15.9</v>
+        <v>-387977.3963</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J102" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K102" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4662,32 +4524,38 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>16.4</v>
+        <v>15.2</v>
       </c>
       <c r="C103" t="n">
-        <v>16.4</v>
+        <v>15.2</v>
       </c>
       <c r="D103" t="n">
-        <v>16.6</v>
+        <v>15.2</v>
       </c>
       <c r="E103" t="n">
-        <v>16.4</v>
+        <v>15.2</v>
       </c>
       <c r="F103" t="n">
-        <v>217137.2518</v>
+        <v>20482.4487</v>
       </c>
       <c r="G103" t="n">
-        <v>15.96</v>
+        <v>-387977.3963</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4698,32 +4566,38 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>16.4</v>
+        <v>15.3</v>
       </c>
       <c r="C104" t="n">
-        <v>16.4</v>
+        <v>15.3</v>
       </c>
       <c r="D104" t="n">
-        <v>16.5</v>
+        <v>15.3</v>
       </c>
       <c r="E104" t="n">
-        <v>16.4</v>
+        <v>15.3</v>
       </c>
       <c r="F104" t="n">
-        <v>280501.822</v>
+        <v>13344.711</v>
       </c>
       <c r="G104" t="n">
-        <v>16.02</v>
+        <v>-374632.6853</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4734,32 +4608,38 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>16.6</v>
+        <v>15.2</v>
       </c>
       <c r="C105" t="n">
-        <v>16.6</v>
+        <v>15.2</v>
       </c>
       <c r="D105" t="n">
-        <v>16.6</v>
+        <v>15.2</v>
       </c>
       <c r="E105" t="n">
-        <v>16.3</v>
+        <v>15.2</v>
       </c>
       <c r="F105" t="n">
-        <v>12926.968</v>
+        <v>115378.8643</v>
       </c>
       <c r="G105" t="n">
-        <v>16.09</v>
+        <v>-490011.5496</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4770,32 +4650,40 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>16.4</v>
+        <v>15.2</v>
       </c>
       <c r="C106" t="n">
-        <v>16.4</v>
+        <v>15.2</v>
       </c>
       <c r="D106" t="n">
-        <v>16.5</v>
+        <v>15.2</v>
       </c>
       <c r="E106" t="n">
-        <v>16.4</v>
+        <v>15.2</v>
       </c>
       <c r="F106" t="n">
-        <v>78004.2104</v>
+        <v>42045.141</v>
       </c>
       <c r="G106" t="n">
-        <v>16.14</v>
+        <v>-490011.5496</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J106" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K106" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4806,32 +4694,38 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>16.4</v>
+        <v>15.2</v>
       </c>
       <c r="C107" t="n">
-        <v>16.4</v>
+        <v>15.2</v>
       </c>
       <c r="D107" t="n">
-        <v>16.4</v>
+        <v>15.2</v>
       </c>
       <c r="E107" t="n">
-        <v>16.4</v>
+        <v>15.2</v>
       </c>
       <c r="F107" t="n">
-        <v>23741.2873</v>
+        <v>5515</v>
       </c>
       <c r="G107" t="n">
-        <v>16.185</v>
+        <v>-490011.5496</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4842,32 +4736,40 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>16.4</v>
+        <v>15.2</v>
       </c>
       <c r="C108" t="n">
-        <v>16.4</v>
+        <v>15.2</v>
       </c>
       <c r="D108" t="n">
-        <v>16.4</v>
+        <v>15.2</v>
       </c>
       <c r="E108" t="n">
-        <v>16.4</v>
+        <v>15.2</v>
       </c>
       <c r="F108" t="n">
-        <v>142088.7126</v>
+        <v>48605</v>
       </c>
       <c r="G108" t="n">
-        <v>16.23999999999999</v>
+        <v>-490011.5496</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
-        <v>1</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J108" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K108" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4878,32 +4780,40 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>16.5</v>
+        <v>15.2</v>
       </c>
       <c r="C109" t="n">
-        <v>16.5</v>
+        <v>15.2</v>
       </c>
       <c r="D109" t="n">
-        <v>16.5</v>
+        <v>15.2</v>
       </c>
       <c r="E109" t="n">
-        <v>16.5</v>
+        <v>15.2</v>
       </c>
       <c r="F109" t="n">
-        <v>10</v>
+        <v>24545</v>
       </c>
       <c r="G109" t="n">
-        <v>16.29</v>
+        <v>-490011.5496</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
-        <v>1</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J109" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K109" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4914,32 +4824,40 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>16.3</v>
+        <v>15.2</v>
       </c>
       <c r="C110" t="n">
-        <v>16.3</v>
+        <v>15.2</v>
       </c>
       <c r="D110" t="n">
-        <v>16.3</v>
+        <v>15.2</v>
       </c>
       <c r="E110" t="n">
-        <v>16.3</v>
+        <v>15.2</v>
       </c>
       <c r="F110" t="n">
-        <v>144271.1658</v>
+        <v>27600</v>
       </c>
       <c r="G110" t="n">
-        <v>16.325</v>
+        <v>-490011.5496</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J110" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K110" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4950,32 +4868,40 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>16.4</v>
+        <v>15.2</v>
       </c>
       <c r="C111" t="n">
-        <v>16.4</v>
+        <v>15.1</v>
       </c>
       <c r="D111" t="n">
-        <v>16.4</v>
+        <v>15.2</v>
       </c>
       <c r="E111" t="n">
-        <v>16.4</v>
+        <v>15.1</v>
       </c>
       <c r="F111" t="n">
-        <v>12</v>
+        <v>7582.003</v>
       </c>
       <c r="G111" t="n">
-        <v>16.34999999999999</v>
+        <v>-497593.5526</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
-        <v>1</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J111" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K111" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4986,32 +4912,40 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>16.4</v>
+        <v>15.2</v>
       </c>
       <c r="C112" t="n">
-        <v>16.4</v>
+        <v>15.2</v>
       </c>
       <c r="D112" t="n">
-        <v>16.4</v>
+        <v>15.2</v>
       </c>
       <c r="E112" t="n">
-        <v>16.4</v>
+        <v>15.2</v>
       </c>
       <c r="F112" t="n">
-        <v>16721.4024</v>
+        <v>50554.577</v>
       </c>
       <c r="G112" t="n">
-        <v>16.36999999999999</v>
+        <v>-447038.9756</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
-        <v>1</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J112" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K112" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -5022,32 +4956,40 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>16.3</v>
+        <v>15.2</v>
       </c>
       <c r="C113" t="n">
-        <v>16.2</v>
+        <v>15.2</v>
       </c>
       <c r="D113" t="n">
-        <v>16.3</v>
+        <v>15.2</v>
       </c>
       <c r="E113" t="n">
-        <v>16.2</v>
+        <v>15.2</v>
       </c>
       <c r="F113" t="n">
-        <v>38800</v>
+        <v>6578.9473</v>
       </c>
       <c r="G113" t="n">
-        <v>16.38499999999999</v>
+        <v>-447038.9756</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
-        <v>1</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K113" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -5058,32 +5000,40 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>16.2</v>
+        <v>15.2</v>
       </c>
       <c r="C114" t="n">
-        <v>16.1</v>
+        <v>15.2</v>
       </c>
       <c r="D114" t="n">
-        <v>16.4</v>
+        <v>15.2</v>
       </c>
       <c r="E114" t="n">
-        <v>16.1</v>
+        <v>15.2</v>
       </c>
       <c r="F114" t="n">
-        <v>247430.5216</v>
+        <v>1888.5549</v>
       </c>
       <c r="G114" t="n">
-        <v>16.38999999999999</v>
+        <v>-447038.9756</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
-        <v>1</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J114" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K114" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -5094,32 +5044,40 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>16.1</v>
+        <v>15.4</v>
       </c>
       <c r="C115" t="n">
-        <v>16.1</v>
+        <v>15.4</v>
       </c>
       <c r="D115" t="n">
-        <v>16.1</v>
+        <v>15.4</v>
       </c>
       <c r="E115" t="n">
-        <v>16.1</v>
+        <v>15.4</v>
       </c>
       <c r="F115" t="n">
-        <v>208431.3118</v>
+        <v>32512.0625</v>
       </c>
       <c r="G115" t="n">
-        <v>16.38499999999999</v>
+        <v>-414526.9131</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
-        <v>1</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J115" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K115" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -5130,32 +5088,40 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="C116" t="n">
-        <v>15.8</v>
+        <v>15.5</v>
       </c>
       <c r="D116" t="n">
-        <v>16.1</v>
+        <v>15.5</v>
       </c>
       <c r="E116" t="n">
-        <v>15.8</v>
+        <v>15.5</v>
       </c>
       <c r="F116" t="n">
-        <v>185219.2127</v>
+        <v>10</v>
       </c>
       <c r="G116" t="n">
-        <v>16.37499999999999</v>
+        <v>-414516.9131</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K116" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -5166,32 +5132,38 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>16</v>
+        <v>15.3</v>
       </c>
       <c r="C117" t="n">
-        <v>16.1</v>
+        <v>15.2</v>
       </c>
       <c r="D117" t="n">
-        <v>16.1</v>
+        <v>15.3</v>
       </c>
       <c r="E117" t="n">
-        <v>16</v>
+        <v>15.2</v>
       </c>
       <c r="F117" t="n">
-        <v>5202</v>
+        <v>236615</v>
       </c>
       <c r="G117" t="n">
-        <v>16.35999999999999</v>
+        <v>-651131.9131</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -5202,32 +5174,40 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>16.1</v>
+        <v>15.5</v>
       </c>
       <c r="C118" t="n">
-        <v>16.1</v>
+        <v>15.6</v>
       </c>
       <c r="D118" t="n">
-        <v>16.1</v>
+        <v>15.6</v>
       </c>
       <c r="E118" t="n">
-        <v>16.1</v>
+        <v>15.5</v>
       </c>
       <c r="F118" t="n">
-        <v>39000</v>
+        <v>170868</v>
       </c>
       <c r="G118" t="n">
-        <v>16.34</v>
+        <v>-480263.9131</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
-        <v>1</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J118" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K118" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -5238,32 +5218,38 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>16.1</v>
+        <v>15.6</v>
       </c>
       <c r="C119" t="n">
-        <v>16.1</v>
+        <v>15.9</v>
       </c>
       <c r="D119" t="n">
-        <v>16.1</v>
+        <v>15.9</v>
       </c>
       <c r="E119" t="n">
-        <v>16.1</v>
+        <v>15.6</v>
       </c>
       <c r="F119" t="n">
-        <v>55296.8378</v>
+        <v>190000</v>
       </c>
       <c r="G119" t="n">
-        <v>16.32</v>
+        <v>-290263.9131</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5274,32 +5260,38 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>16.1</v>
+        <v>15.9</v>
       </c>
       <c r="C120" t="n">
-        <v>16.1</v>
+        <v>15.9</v>
       </c>
       <c r="D120" t="n">
-        <v>16.1</v>
+        <v>15.9</v>
       </c>
       <c r="E120" t="n">
-        <v>16.1</v>
+        <v>15.9</v>
       </c>
       <c r="F120" t="n">
-        <v>48896.4785</v>
+        <v>143991.3958</v>
       </c>
       <c r="G120" t="n">
-        <v>16.29499999999999</v>
+        <v>-290263.9131</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5310,32 +5302,38 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="C121" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="D121" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="E121" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="F121" t="n">
-        <v>75116.02499999999</v>
+        <v>64600</v>
       </c>
       <c r="G121" t="n">
-        <v>16.28</v>
+        <v>-225663.9131</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5346,7 +5344,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>16.2</v>
+        <v>16</v>
       </c>
       <c r="C122" t="n">
         <v>16.2</v>
@@ -5355,23 +5353,29 @@
         <v>16.2</v>
       </c>
       <c r="E122" t="n">
-        <v>16.2</v>
+        <v>16</v>
       </c>
       <c r="F122" t="n">
-        <v>105982.4382</v>
+        <v>267267.8856</v>
       </c>
       <c r="G122" t="n">
-        <v>16.27</v>
+        <v>41603.97249999997</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5382,7 +5386,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="C123" t="n">
         <v>16.2</v>
@@ -5391,23 +5395,29 @@
         <v>16.2</v>
       </c>
       <c r="E123" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="F123" t="n">
-        <v>64472.932</v>
+        <v>39639.6796</v>
       </c>
       <c r="G123" t="n">
-        <v>16.26</v>
+        <v>41603.97249999997</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5424,26 +5434,32 @@
         <v>16.2</v>
       </c>
       <c r="D124" t="n">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="E124" t="n">
         <v>16.2</v>
       </c>
       <c r="F124" t="n">
-        <v>140278.4567</v>
+        <v>190413.3</v>
       </c>
       <c r="G124" t="n">
-        <v>16.25</v>
+        <v>41603.97249999997</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5457,29 +5473,35 @@
         <v>16.2</v>
       </c>
       <c r="C125" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="D125" t="n">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="E125" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="F125" t="n">
-        <v>26408.3333</v>
+        <v>225425.4704</v>
       </c>
       <c r="G125" t="n">
-        <v>16.23</v>
+        <v>-183821.4979</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5493,29 +5515,35 @@
         <v>16.3</v>
       </c>
       <c r="C126" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="D126" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="E126" t="n">
         <v>16.3</v>
       </c>
       <c r="F126" t="n">
-        <v>50010</v>
+        <v>190471</v>
       </c>
       <c r="G126" t="n">
-        <v>16.225</v>
+        <v>6649.502099999983</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5526,32 +5554,38 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>16.2</v>
+        <v>16.5</v>
       </c>
       <c r="C127" t="n">
-        <v>16.2</v>
+        <v>16.6</v>
       </c>
       <c r="D127" t="n">
-        <v>16.2</v>
+        <v>16.6</v>
       </c>
       <c r="E127" t="n">
-        <v>16.2</v>
+        <v>16.5</v>
       </c>
       <c r="F127" t="n">
-        <v>46100</v>
+        <v>1020349.4199</v>
       </c>
       <c r="G127" t="n">
-        <v>16.215</v>
+        <v>1026998.922</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5562,36 +5596,1124 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C128" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="D128" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="E128" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="F128" t="n">
+        <v>654155.1551</v>
+      </c>
+      <c r="G128" t="n">
+        <v>1026998.922</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="C129" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="D129" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="E129" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="F129" t="n">
+        <v>405142.0102</v>
+      </c>
+      <c r="G129" t="n">
+        <v>621856.9118</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="C130" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="D130" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="E130" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="F130" t="n">
+        <v>261163.9175</v>
+      </c>
+      <c r="G130" t="n">
+        <v>883020.8293</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="C131" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="D131" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E131" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="F131" t="n">
+        <v>143197.4809</v>
+      </c>
+      <c r="G131" t="n">
+        <v>883020.8293</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="C132" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="D132" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="E132" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="F132" t="n">
+        <v>217137.2518</v>
+      </c>
+      <c r="G132" t="n">
+        <v>883020.8293</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="C133" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="D133" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E133" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="F133" t="n">
+        <v>280501.822</v>
+      </c>
+      <c r="G133" t="n">
+        <v>883020.8293</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="C134" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="D134" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="E134" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="F134" t="n">
+        <v>12926.968</v>
+      </c>
+      <c r="G134" t="n">
+        <v>895947.7973</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>1</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>1.094337748344371</v>
+      </c>
+      <c r="N134" t="n">
+        <v>1.026490066225165</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="C135" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="D135" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E135" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="F135" t="n">
+        <v>78004.2104</v>
+      </c>
+      <c r="G135" t="n">
+        <v>817943.5869</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>1</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="C136" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="D136" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="E136" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="F136" t="n">
+        <v>23741.2873</v>
+      </c>
+      <c r="G136" t="n">
+        <v>817943.5869</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>1</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="C137" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="D137" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="E137" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="F137" t="n">
+        <v>142088.7126</v>
+      </c>
+      <c r="G137" t="n">
+        <v>817943.5869</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C138" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="D138" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E138" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="F138" t="n">
+        <v>10</v>
+      </c>
+      <c r="G138" t="n">
+        <v>817953.5869</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="C139" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="D139" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="E139" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="F139" t="n">
+        <v>144271.1658</v>
+      </c>
+      <c r="G139" t="n">
+        <v>673682.4211</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="C140" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="D140" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="E140" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="F140" t="n">
+        <v>12</v>
+      </c>
+      <c r="G140" t="n">
+        <v>673694.4211</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="C141" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="D141" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="E141" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="F141" t="n">
+        <v>16721.4024</v>
+      </c>
+      <c r="G141" t="n">
+        <v>673694.4211</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="C142" t="n">
         <v>16.2</v>
       </c>
-      <c r="C128" t="n">
+      <c r="D142" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="E142" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="F142" t="n">
+        <v>38800</v>
+      </c>
+      <c r="G142" t="n">
+        <v>634894.4211</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="C143" t="n">
         <v>16.1</v>
       </c>
-      <c r="D128" t="n">
+      <c r="D143" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="E143" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="F143" t="n">
+        <v>247430.5216</v>
+      </c>
+      <c r="G143" t="n">
+        <v>387463.8995000001</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="C144" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="D144" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="E144" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="F144" t="n">
+        <v>208431.3118</v>
+      </c>
+      <c r="G144" t="n">
+        <v>387463.8995000001</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>16</v>
+      </c>
+      <c r="C145" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="D145" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="E145" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="F145" t="n">
+        <v>185219.2127</v>
+      </c>
+      <c r="G145" t="n">
+        <v>202244.6868000001</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>16</v>
+      </c>
+      <c r="C146" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="D146" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="E146" t="n">
+        <v>16</v>
+      </c>
+      <c r="F146" t="n">
+        <v>5202</v>
+      </c>
+      <c r="G146" t="n">
+        <v>207446.6868000001</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="C147" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="D147" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="E147" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="F147" t="n">
+        <v>39000</v>
+      </c>
+      <c r="G147" t="n">
+        <v>207446.6868000001</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="C148" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="D148" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="E148" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="F148" t="n">
+        <v>55296.8378</v>
+      </c>
+      <c r="G148" t="n">
+        <v>207446.6868000001</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="C149" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="D149" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="E149" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="F149" t="n">
+        <v>48896.4785</v>
+      </c>
+      <c r="G149" t="n">
+        <v>207446.6868000001</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="C150" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="D150" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="E150" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="F150" t="n">
+        <v>75116.02499999999</v>
+      </c>
+      <c r="G150" t="n">
+        <v>207446.6868000001</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
         <v>16.2</v>
       </c>
-      <c r="E128" t="n">
+      <c r="C151" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="D151" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="E151" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="F151" t="n">
+        <v>105982.4382</v>
+      </c>
+      <c r="G151" t="n">
+        <v>313429.1250000001</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>1</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="C152" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="D152" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="E152" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="F152" t="n">
+        <v>64472.932</v>
+      </c>
+      <c r="G152" t="n">
+        <v>313429.1250000001</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>1</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="C153" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="D153" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="E153" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="F153" t="n">
+        <v>140278.4567</v>
+      </c>
+      <c r="G153" t="n">
+        <v>313429.1250000001</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>1</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="C154" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="D154" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="E154" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="F154" t="n">
+        <v>26408.3333</v>
+      </c>
+      <c r="G154" t="n">
+        <v>313429.1250000001</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>1</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="C155" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="D155" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="E155" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="F155" t="n">
+        <v>50010</v>
+      </c>
+      <c r="G155" t="n">
+        <v>363439.1250000001</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>1</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="C156" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="D156" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="E156" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="F156" t="n">
+        <v>46100</v>
+      </c>
+      <c r="G156" t="n">
+        <v>317339.1250000001</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>1</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="C157" t="n">
         <v>16.1</v>
       </c>
-      <c r="F128" t="n">
+      <c r="D157" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="E157" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="F157" t="n">
         <v>35217.5098</v>
       </c>
-      <c r="G128" t="n">
-        <v>16.205</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>1</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="G157" t="n">
+        <v>282121.6152000001</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>1</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-29 BackTest MITH.xlsx
+++ b/BackTest/2019-10-29 BackTest MITH.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N157"/>
+  <dimension ref="A1:M157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1284,22 +1210,15 @@
         <v>-441124.0962999999</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K25" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1324,26 +1243,15 @@
         <v>-440924.0962999999</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K26" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1368,26 +1276,15 @@
         <v>-712540.1782999999</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K27" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1412,22 +1309,15 @@
         <v>-712540.1782999999</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K28" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1452,26 +1342,15 @@
         <v>-647263.9143999999</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K29" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1496,26 +1375,15 @@
         <v>-547779.8856999999</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K30" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1542,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1578,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1614,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1650,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1686,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1722,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1758,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1794,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1830,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1864,18 +1705,19 @@
         <v>-490771.6834999999</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
+        <v>15.1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1900,18 +1742,23 @@
         <v>-490771.6834999999</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+        <v>15.1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1936,22 +1783,23 @@
         <v>-490771.6834999999</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>15.1</v>
       </c>
       <c r="J42" t="n">
         <v>15.1</v>
       </c>
-      <c r="K42" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1976,26 +1824,19 @@
         <v>-490771.6834999999</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>15.1</v>
       </c>
       <c r="J43" t="n">
         <v>15.1</v>
       </c>
-      <c r="K43" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2020,26 +1861,23 @@
         <v>-235611.4419999999</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>15.1</v>
       </c>
       <c r="J44" t="n">
         <v>15.1</v>
       </c>
-      <c r="K44" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L44" t="inlineStr">
+      <c r="K44" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2064,26 +1902,23 @@
         <v>-235664.5919999999</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>15.2</v>
       </c>
       <c r="J45" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K45" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+        <v>15.1</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2108,24 +1943,23 @@
         <v>-235664.5919999999</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+        <v>15.1</v>
+      </c>
+      <c r="J46" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2150,24 +1984,23 @@
         <v>-237943.4588999999</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+        <v>15.1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2192,24 +2025,23 @@
         <v>-237843.4588999999</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+        <v>15</v>
+      </c>
+      <c r="J48" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2234,24 +2066,23 @@
         <v>-287843.4588999999</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+        <v>15.2</v>
+      </c>
+      <c r="J49" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2276,26 +2107,23 @@
         <v>-287843.4588999999</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>15.1</v>
       </c>
       <c r="J50" t="n">
         <v>15.1</v>
       </c>
-      <c r="K50" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2320,26 +2148,23 @@
         <v>-287843.4588999999</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>15.1</v>
       </c>
       <c r="J51" t="n">
         <v>15.1</v>
       </c>
-      <c r="K51" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2364,26 +2189,23 @@
         <v>-287843.4588999999</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>15.1</v>
       </c>
       <c r="J52" t="n">
         <v>15.1</v>
       </c>
-      <c r="K52" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2408,26 +2230,23 @@
         <v>-157889.7813999999</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>15.1</v>
       </c>
       <c r="J53" t="n">
         <v>15.1</v>
       </c>
-      <c r="K53" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2452,26 +2271,23 @@
         <v>-157889.7813999999</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>15.2</v>
       </c>
       <c r="J54" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K54" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+        <v>15.1</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2496,26 +2312,23 @@
         <v>-157889.7813999999</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>15.2</v>
       </c>
       <c r="J55" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K55" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+        <v>15.1</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2540,26 +2353,23 @@
         <v>-157889.7813999999</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>15.2</v>
       </c>
       <c r="J56" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K56" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+        <v>15.1</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2584,26 +2394,23 @@
         <v>-157889.7813999999</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>15.2</v>
       </c>
       <c r="J57" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K57" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+        <v>15.1</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2628,24 +2435,23 @@
         <v>-157889.7813999999</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+        <v>15.2</v>
+      </c>
+      <c r="J58" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2670,24 +2476,23 @@
         <v>-53130.61479999992</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+        <v>15.2</v>
+      </c>
+      <c r="J59" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2712,24 +2517,23 @@
         <v>-54455.48859999992</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+        <v>15.3</v>
+      </c>
+      <c r="J60" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2756,22 +2560,19 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2796,24 +2597,23 @@
         <v>-54455.48859999992</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+        <v>15.2</v>
+      </c>
+      <c r="J62" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2840,22 +2640,19 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2882,22 +2679,19 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2924,22 +2718,19 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2966,22 +2757,19 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3008,22 +2796,19 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3050,22 +2835,19 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3090,24 +2872,23 @@
         <v>-4455.488599999924</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+        <v>15.2</v>
+      </c>
+      <c r="J69" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3134,22 +2915,19 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3174,24 +2952,23 @@
         <v>154182.5114000001</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+        <v>15.3</v>
+      </c>
+      <c r="J71" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3216,24 +2993,23 @@
         <v>154182.5114000001</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+        <v>15.4</v>
+      </c>
+      <c r="J72" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3258,24 +3034,23 @@
         <v>154182.5114000001</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+        <v>15.4</v>
+      </c>
+      <c r="J73" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3300,24 +3075,23 @@
         <v>116590.3638000001</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+        <v>15.4</v>
+      </c>
+      <c r="J74" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3344,22 +3118,19 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3384,24 +3155,23 @@
         <v>-78402.82929999991</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+        <v>15.2</v>
+      </c>
+      <c r="J76" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3428,22 +3198,19 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3470,22 +3237,19 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3512,22 +3276,19 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3554,22 +3315,19 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3596,22 +3354,19 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3638,22 +3393,19 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3680,22 +3432,19 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3722,22 +3471,19 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3764,22 +3510,19 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3806,22 +3549,19 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3848,22 +3588,19 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3888,24 +3625,23 @@
         <v>-392118.9825999999</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+        <v>15.3</v>
+      </c>
+      <c r="J88" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3930,26 +3666,23 @@
         <v>-504402.7033999999</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>15.3</v>
       </c>
       <c r="J89" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K89" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+        <v>15.1</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3974,26 +3707,23 @@
         <v>-504402.7033999999</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>15.2</v>
       </c>
       <c r="J90" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K90" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+        <v>15.1</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4018,26 +3748,23 @@
         <v>-432328.2589999999</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>15.2</v>
       </c>
       <c r="J91" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K91" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+        <v>15.1</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4062,26 +3789,23 @@
         <v>-565720.4680999999</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>15.3</v>
       </c>
       <c r="J92" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K92" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+        <v>15.1</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4106,26 +3830,23 @@
         <v>-565720.4680999999</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>15.1</v>
       </c>
       <c r="J93" t="n">
         <v>15.1</v>
       </c>
-      <c r="K93" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4150,26 +3871,23 @@
         <v>-369498.7033999999</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>15.1</v>
       </c>
       <c r="J94" t="n">
         <v>15.1</v>
       </c>
-      <c r="K94" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4196,22 +3914,19 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4236,26 +3951,23 @@
         <v>-421398.7033999999</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>15.2</v>
       </c>
       <c r="J96" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K96" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+        <v>15.1</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4280,26 +3992,23 @@
         <v>-391857.3963</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>15.2</v>
       </c>
       <c r="J97" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K97" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+        <v>15.1</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4324,26 +4033,23 @@
         <v>-391877.3963</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>15.3</v>
       </c>
       <c r="J98" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K98" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+        <v>15.1</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4368,26 +4074,21 @@
         <v>-391877.3963</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K99" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+        <v>15.1</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4412,26 +4113,21 @@
         <v>-336977.3963</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K100" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+        <v>15.1</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4458,22 +4154,19 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4498,26 +4191,21 @@
         <v>-387977.3963</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K102" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+        <v>15.1</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4544,22 +4232,19 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4586,22 +4271,19 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4628,22 +4310,19 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4668,26 +4347,21 @@
         <v>-490011.5496</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K106" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+        <v>15.1</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4714,22 +4388,19 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4754,26 +4425,23 @@
         <v>-490011.5496</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>15.2</v>
       </c>
       <c r="J108" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K108" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+        <v>15.1</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4798,26 +4466,23 @@
         <v>-490011.5496</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>15.2</v>
       </c>
       <c r="J109" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K109" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+        <v>15.1</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4842,26 +4507,23 @@
         <v>-490011.5496</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>15.2</v>
       </c>
       <c r="J110" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K110" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+        <v>15.1</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4886,26 +4548,23 @@
         <v>-497593.5526</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>15.2</v>
       </c>
       <c r="J111" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K111" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+        <v>15.1</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4930,26 +4589,23 @@
         <v>-447038.9756</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>15.1</v>
       </c>
       <c r="J112" t="n">
         <v>15.1</v>
       </c>
-      <c r="K112" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4974,26 +4630,23 @@
         <v>-447038.9756</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>15.2</v>
       </c>
       <c r="J113" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K113" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+        <v>15.1</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -5018,26 +4671,23 @@
         <v>-447038.9756</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>15.2</v>
       </c>
       <c r="J114" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K114" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+        <v>15.1</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -5062,26 +4712,23 @@
         <v>-414526.9131</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>15.2</v>
       </c>
       <c r="J115" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K115" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+        <v>15.1</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5106,26 +4753,21 @@
         <v>-414516.9131</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K116" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+        <v>15.1</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5152,22 +4794,19 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5192,26 +4831,21 @@
         <v>-480263.9131</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K118" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+        <v>15.1</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5238,22 +4872,19 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5280,22 +4911,19 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5322,22 +4950,19 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5364,22 +4989,19 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5406,22 +5028,19 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5448,22 +5067,19 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5488,24 +5104,23 @@
         <v>-183821.4979</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1.061225165562914</v>
       </c>
       <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+        <v>1.026490066225165</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5532,22 +5147,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5574,22 +5180,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5616,22 +5213,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5658,22 +5246,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5698,24 +5277,15 @@
         <v>883020.8293</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5740,24 +5310,15 @@
         <v>883020.8293</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5782,24 +5343,15 @@
         <v>883020.8293</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5824,24 +5376,15 @@
         <v>883020.8293</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5866,26 +5409,15 @@
         <v>895947.7973</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1.094337748344371</v>
-      </c>
-      <c r="N134" t="n">
-        <v>1.026490066225165</v>
-      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5910,18 +5442,15 @@
         <v>817943.5869</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5946,18 +5475,15 @@
         <v>817943.5869</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5984,16 +5510,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -6020,16 +5543,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -6056,16 +5576,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -6092,16 +5609,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -6128,16 +5642,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6162,18 +5673,15 @@
         <v>634894.4211</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6200,16 +5708,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6236,16 +5741,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6272,16 +5774,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6308,16 +5807,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6342,18 +5838,15 @@
         <v>207446.6868000001</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6378,18 +5871,15 @@
         <v>207446.6868000001</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6414,18 +5904,15 @@
         <v>207446.6868000001</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6450,18 +5937,15 @@
         <v>207446.6868000001</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6486,18 +5970,15 @@
         <v>313429.1250000001</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6522,18 +6003,15 @@
         <v>313429.1250000001</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6558,18 +6036,15 @@
         <v>313429.1250000001</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6596,16 +6071,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>1</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6630,18 +6102,15 @@
         <v>363439.1250000001</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6666,18 +6135,15 @@
         <v>317339.1250000001</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6704,18 +6170,15 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>1</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-29 BackTest MITH.xlsx
+++ b/BackTest/2019-10-29 BackTest MITH.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -583,10 +583,14 @@
         <v>-71403.79279999997</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="J6" t="n">
+        <v>15.2</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -616,11 +620,19 @@
         <v>-71391.79279999997</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="J7" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -652,8 +664,14 @@
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -1177,10 +1195,14 @@
         <v>-441124.0962999999</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
@@ -1210,11 +1232,19 @@
         <v>-441124.0962999999</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1243,11 +1273,19 @@
         <v>-440924.0962999999</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1276,10 +1314,14 @@
         <v>-712540.1782999999</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="J27" t="n">
+        <v>15.3</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
@@ -1309,11 +1351,19 @@
         <v>-712540.1782999999</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1342,11 +1392,19 @@
         <v>-647263.9143999999</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="J29" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1375,11 +1433,19 @@
         <v>-547779.8856999999</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="J30" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1408,11 +1474,19 @@
         <v>-561722.2114999999</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="J31" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1444,8 +1518,14 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1477,8 +1557,14 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1510,8 +1596,14 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1543,8 +1635,14 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1576,8 +1674,14 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1609,8 +1713,14 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1642,8 +1752,14 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1672,11 +1788,19 @@
         <v>-490771.6834999999</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1705,15 +1829,17 @@
         <v>-490771.6834999999</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
-      </c>
-      <c r="I40" t="n">
-        <v>15.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K40" t="inlineStr"/>
+        <v>15.3</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1742,17 +1868,17 @@
         <v>-490771.6834999999</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>15.1</v>
       </c>
       <c r="J41" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L41" t="n">
@@ -1783,17 +1909,17 @@
         <v>-490771.6834999999</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>15.1</v>
       </c>
       <c r="J42" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L42" t="n">
@@ -1824,15 +1950,19 @@
         <v>-490771.6834999999</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>15.1</v>
       </c>
       <c r="J43" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K43" t="inlineStr"/>
+        <v>15.3</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1861,17 +1991,17 @@
         <v>-235611.4419999999</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>15.1</v>
       </c>
       <c r="J44" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L44" t="n">
@@ -1902,13 +2032,13 @@
         <v>-235664.5919999999</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>15.2</v>
       </c>
       <c r="J45" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -1943,13 +2073,13 @@
         <v>-235664.5919999999</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>15.1</v>
       </c>
       <c r="J46" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -1984,13 +2114,13 @@
         <v>-237943.4588999999</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>15.1</v>
       </c>
       <c r="J47" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -2025,13 +2155,13 @@
         <v>-237843.4588999999</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>15</v>
       </c>
       <c r="J48" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -2066,13 +2196,13 @@
         <v>-287843.4588999999</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>15.2</v>
       </c>
       <c r="J49" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -2107,13 +2237,13 @@
         <v>-287843.4588999999</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>15.1</v>
       </c>
       <c r="J50" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -2148,13 +2278,13 @@
         <v>-287843.4588999999</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>15.1</v>
       </c>
       <c r="J51" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -2189,13 +2319,13 @@
         <v>-287843.4588999999</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>15.1</v>
       </c>
       <c r="J52" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -2230,13 +2360,13 @@
         <v>-157889.7813999999</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>15.1</v>
       </c>
       <c r="J53" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -2271,13 +2401,13 @@
         <v>-157889.7813999999</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>15.2</v>
       </c>
       <c r="J54" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -2312,13 +2442,13 @@
         <v>-157889.7813999999</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>15.2</v>
       </c>
       <c r="J55" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -2353,13 +2483,13 @@
         <v>-157889.7813999999</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>15.2</v>
       </c>
       <c r="J56" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -2394,13 +2524,13 @@
         <v>-157889.7813999999</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>15.2</v>
       </c>
       <c r="J57" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -2435,13 +2565,11 @@
         <v>-157889.7813999999</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
-      </c>
-      <c r="I58" t="n">
-        <v>15.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -2476,13 +2604,13 @@
         <v>-53130.61479999992</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>15.2</v>
       </c>
       <c r="J59" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -2517,13 +2645,11 @@
         <v>-54455.48859999992</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
-      </c>
-      <c r="I60" t="n">
-        <v>15.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -2562,7 +2688,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -2597,13 +2723,11 @@
         <v>-54455.48859999992</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
-      </c>
-      <c r="I62" t="n">
-        <v>15.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -2642,7 +2766,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -2681,7 +2805,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -2720,7 +2844,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -2759,7 +2883,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -2798,7 +2922,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -2837,7 +2961,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -2872,13 +2996,11 @@
         <v>-4455.488599999924</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
-      </c>
-      <c r="I69" t="n">
-        <v>15.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -2917,7 +3039,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -2952,13 +3074,11 @@
         <v>154182.5114000001</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
-      </c>
-      <c r="I71" t="n">
-        <v>15.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -2993,13 +3113,11 @@
         <v>154182.5114000001</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
-      </c>
-      <c r="I72" t="n">
-        <v>15.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -3034,13 +3152,11 @@
         <v>154182.5114000001</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
-      </c>
-      <c r="I73" t="n">
-        <v>15.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -3075,13 +3191,11 @@
         <v>116590.3638000001</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
-      </c>
-      <c r="I74" t="n">
-        <v>15.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -3120,7 +3234,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3155,13 +3269,11 @@
         <v>-78402.82929999991</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
-      </c>
-      <c r="I76" t="n">
-        <v>15.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3200,7 +3312,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3239,7 +3351,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3278,7 +3390,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3317,7 +3429,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3356,7 +3468,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3395,7 +3507,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3434,7 +3546,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3473,7 +3585,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3512,7 +3624,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3551,7 +3663,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3590,7 +3702,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3625,13 +3737,11 @@
         <v>-392118.9825999999</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
-      </c>
-      <c r="I88" t="n">
-        <v>15.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3666,13 +3776,13 @@
         <v>-504402.7033999999</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>15.3</v>
       </c>
       <c r="J89" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3707,13 +3817,11 @@
         <v>-504402.7033999999</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
-      </c>
-      <c r="I90" t="n">
-        <v>15.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3748,13 +3856,13 @@
         <v>-432328.2589999999</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>15.2</v>
       </c>
       <c r="J91" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -3789,13 +3897,13 @@
         <v>-565720.4680999999</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>15.3</v>
       </c>
       <c r="J92" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -3830,13 +3938,13 @@
         <v>-565720.4680999999</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>15.1</v>
       </c>
       <c r="J93" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -3871,13 +3979,13 @@
         <v>-369498.7033999999</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>15.1</v>
       </c>
       <c r="J94" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -3912,11 +4020,13 @@
         <v>-421398.7033999999</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>15.3</v>
+      </c>
       <c r="J95" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -3951,13 +4061,11 @@
         <v>-421398.7033999999</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
-      </c>
-      <c r="I96" t="n">
-        <v>15.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -3992,13 +4100,11 @@
         <v>-391857.3963</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
-      </c>
-      <c r="I97" t="n">
-        <v>15.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -4033,13 +4139,11 @@
         <v>-391877.3963</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
-      </c>
-      <c r="I98" t="n">
-        <v>15.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -4078,7 +4182,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -4117,7 +4221,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -4156,7 +4260,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -4195,7 +4299,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -4234,7 +4338,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -4269,11 +4373,13 @@
         <v>-374632.6853</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>15.2</v>
+      </c>
       <c r="J104" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4312,7 +4418,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4347,11 +4453,13 @@
         <v>-490011.5496</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>15.2</v>
+      </c>
       <c r="J106" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4386,11 +4494,13 @@
         <v>-490011.5496</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>15.2</v>
+      </c>
       <c r="J107" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4425,13 +4535,13 @@
         <v>-490011.5496</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>15.2</v>
       </c>
       <c r="J108" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4466,13 +4576,13 @@
         <v>-490011.5496</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>15.2</v>
       </c>
       <c r="J109" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4507,13 +4617,13 @@
         <v>-490011.5496</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>15.2</v>
       </c>
       <c r="J110" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4548,13 +4658,13 @@
         <v>-497593.5526</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>15.2</v>
       </c>
       <c r="J111" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4589,13 +4699,13 @@
         <v>-447038.9756</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
         <v>15.1</v>
       </c>
       <c r="J112" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4630,13 +4740,13 @@
         <v>-447038.9756</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
         <v>15.2</v>
       </c>
       <c r="J113" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4671,13 +4781,13 @@
         <v>-447038.9756</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>15.2</v>
       </c>
       <c r="J114" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4712,13 +4822,13 @@
         <v>-414526.9131</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
         <v>15.2</v>
       </c>
       <c r="J115" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4753,11 +4863,13 @@
         <v>-414516.9131</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>15.4</v>
+      </c>
       <c r="J116" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4796,7 +4908,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -4835,7 +4947,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -4874,7 +4986,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -4913,7 +5025,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -4952,7 +5064,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -4991,7 +5103,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -5030,7 +5142,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -5069,7 +5181,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -5104,23 +5216,21 @@
         <v>-183821.4979</v>
       </c>
       <c r="H125" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L125" t="n">
-        <v>1.061225165562914</v>
-      </c>
-      <c r="M125" t="n">
-        <v>1.026490066225165</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5148,8 +5258,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5181,8 +5297,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5214,8 +5336,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5247,8 +5375,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5277,11 +5411,17 @@
         <v>883020.8293</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5310,11 +5450,17 @@
         <v>883020.8293</v>
       </c>
       <c r="H131" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5343,11 +5489,17 @@
         <v>883020.8293</v>
       </c>
       <c r="H132" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5376,11 +5528,17 @@
         <v>883020.8293</v>
       </c>
       <c r="H133" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5409,11 +5567,17 @@
         <v>895947.7973</v>
       </c>
       <c r="H134" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5442,11 +5606,17 @@
         <v>817943.5869</v>
       </c>
       <c r="H135" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5475,11 +5645,17 @@
         <v>817943.5869</v>
       </c>
       <c r="H136" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5511,8 +5687,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5544,8 +5726,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5577,8 +5765,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5610,8 +5804,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5643,8 +5843,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5673,11 +5879,17 @@
         <v>634894.4211</v>
       </c>
       <c r="H142" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5709,8 +5921,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5742,8 +5960,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5775,8 +5999,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5808,8 +6038,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5838,11 +6074,17 @@
         <v>207446.6868000001</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5871,13 +6113,19 @@
         <v>207446.6868000001</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L148" t="n">
-        <v>1</v>
+        <v>1.047287581699347</v>
       </c>
       <c r="M148" t="inlineStr"/>
     </row>
@@ -5904,7 +6152,7 @@
         <v>207446.6868000001</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5937,7 +6185,7 @@
         <v>207446.6868000001</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5970,7 +6218,7 @@
         <v>313429.1250000001</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -6003,7 +6251,7 @@
         <v>313429.1250000001</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -6036,7 +6284,7 @@
         <v>313429.1250000001</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -6069,7 +6317,7 @@
         <v>313429.1250000001</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -6102,7 +6350,7 @@
         <v>363439.1250000001</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -6135,7 +6383,7 @@
         <v>317339.1250000001</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -6168,7 +6416,7 @@
         <v>282121.6152000001</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6179,6 +6427,6 @@
       <c r="M157" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-29 BackTest MITH.xlsx
+++ b/BackTest/2019-10-29 BackTest MITH.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,10 +484,14 @@
         <v>-296447.8058</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>-296447.8058</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="J4" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -553,8 +565,14 @@
         <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -620,11 +638,9 @@
         <v>-71391.79279999997</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>15.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
         <v>15.2</v>
       </c>
@@ -1195,14 +1211,10 @@
         <v>-441124.0962999999</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="J24" t="n">
-        <v>15.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
@@ -1232,19 +1244,11 @@
         <v>-441124.0962999999</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="J25" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1273,19 +1277,11 @@
         <v>-440924.0962999999</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="J26" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1314,14 +1310,10 @@
         <v>-712540.1782999999</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="J27" t="n">
-        <v>15.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
@@ -1351,19 +1343,11 @@
         <v>-712540.1782999999</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="J28" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1392,19 +1376,11 @@
         <v>-647263.9143999999</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="J29" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1433,19 +1409,11 @@
         <v>-547779.8856999999</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="J30" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1474,19 +1442,11 @@
         <v>-561722.2114999999</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="J31" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1518,14 +1478,8 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1557,14 +1511,8 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1596,14 +1544,8 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1635,14 +1577,8 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1674,14 +1610,8 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1713,14 +1643,8 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1752,14 +1676,8 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1788,19 +1706,11 @@
         <v>-490771.6834999999</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="J39" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1832,14 +1742,8 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1868,19 +1772,11 @@
         <v>-490771.6834999999</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="J41" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1909,19 +1805,11 @@
         <v>-490771.6834999999</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="J42" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1950,19 +1838,11 @@
         <v>-490771.6834999999</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="J43" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1991,19 +1871,11 @@
         <v>-235611.4419999999</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="J44" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2032,19 +1904,11 @@
         <v>-235664.5919999999</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="J45" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2073,19 +1937,11 @@
         <v>-235664.5919999999</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="J46" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2120,13 +1976,9 @@
         <v>15.1</v>
       </c>
       <c r="J47" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>15.1</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2161,11 +2013,11 @@
         <v>15</v>
       </c>
       <c r="J48" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L48" t="n">
@@ -2196,17 +2048,15 @@
         <v>-287843.4588999999</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>15.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L49" t="n">
@@ -2243,13 +2093,9 @@
         <v>15.1</v>
       </c>
       <c r="J50" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>15.1</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2284,11 +2130,11 @@
         <v>15.1</v>
       </c>
       <c r="J51" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L51" t="n">
@@ -2325,11 +2171,11 @@
         <v>15.1</v>
       </c>
       <c r="J52" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L52" t="n">
@@ -2366,11 +2212,11 @@
         <v>15.1</v>
       </c>
       <c r="J53" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L53" t="n">
@@ -2407,7 +2253,7 @@
         <v>15.2</v>
       </c>
       <c r="J54" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -2442,13 +2288,11 @@
         <v>-157889.7813999999</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>15.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -2483,13 +2327,11 @@
         <v>-157889.7813999999</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>15.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -2524,13 +2366,11 @@
         <v>-157889.7813999999</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>15.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -2569,7 +2409,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -2604,13 +2444,11 @@
         <v>-53130.61479999992</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>15.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -2649,7 +2487,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -2688,7 +2526,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -2727,7 +2565,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -2766,7 +2604,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -2805,7 +2643,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -2844,7 +2682,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -2883,7 +2721,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -2922,7 +2760,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -2961,7 +2799,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -3000,7 +2838,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -3039,7 +2877,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -3078,7 +2916,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -3117,7 +2955,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -3156,7 +2994,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -3195,7 +3033,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -3234,7 +3072,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3273,7 +3111,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3312,7 +3150,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3351,7 +3189,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3390,7 +3228,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3429,7 +3267,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3468,7 +3306,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3507,7 +3345,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3546,7 +3384,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3585,7 +3423,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3624,7 +3462,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3663,7 +3501,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3702,7 +3540,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3741,7 +3579,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3776,13 +3614,11 @@
         <v>-504402.7033999999</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>15.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3821,7 +3657,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3856,13 +3692,11 @@
         <v>-432328.2589999999</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>15.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -3897,13 +3731,11 @@
         <v>-565720.4680999999</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>15.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -3938,13 +3770,11 @@
         <v>-565720.4680999999</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>15.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -3985,7 +3815,7 @@
         <v>15.1</v>
       </c>
       <c r="J94" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -4020,13 +3850,11 @@
         <v>-421398.7033999999</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>15.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -4065,7 +3893,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -4100,11 +3928,13 @@
         <v>-391857.3963</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>15.2</v>
+      </c>
       <c r="J97" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -4143,7 +3973,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -4182,7 +4012,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -4221,7 +4051,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -4260,7 +4090,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -4299,7 +4129,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -4338,7 +4168,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -4373,13 +4203,11 @@
         <v>-374632.6853</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>15.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4418,7 +4246,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4453,13 +4281,11 @@
         <v>-490011.5496</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>15.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4494,13 +4320,11 @@
         <v>-490011.5496</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>15.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4541,7 +4365,7 @@
         <v>15.2</v>
       </c>
       <c r="J108" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4582,7 +4406,7 @@
         <v>15.2</v>
       </c>
       <c r="J109" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4623,7 +4447,7 @@
         <v>15.2</v>
       </c>
       <c r="J110" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4664,7 +4488,7 @@
         <v>15.2</v>
       </c>
       <c r="J111" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4705,7 +4529,7 @@
         <v>15.1</v>
       </c>
       <c r="J112" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4746,7 +4570,7 @@
         <v>15.2</v>
       </c>
       <c r="J113" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4787,7 +4611,7 @@
         <v>15.2</v>
       </c>
       <c r="J114" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4828,7 +4652,7 @@
         <v>15.2</v>
       </c>
       <c r="J115" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4863,13 +4687,11 @@
         <v>-414516.9131</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>15.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4908,7 +4730,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -4947,7 +4769,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -4986,7 +4808,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -5025,7 +4847,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -5064,7 +4886,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -5103,7 +4925,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -5138,21 +4960,23 @@
         <v>41603.97249999997</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+        <v>1.067847682119205</v>
+      </c>
+      <c r="M123" t="n">
+        <v>1.033333333333333</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5177,17 +5001,11 @@
         <v>41603.97249999997</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5216,17 +5034,11 @@
         <v>-183821.4979</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5255,17 +5067,11 @@
         <v>6649.502099999983</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5294,17 +5100,11 @@
         <v>1026998.922</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5336,14 +5136,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5375,14 +5169,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5414,14 +5202,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5453,14 +5235,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5492,14 +5268,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5531,14 +5301,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5570,14 +5334,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5609,14 +5367,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5648,14 +5400,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5687,14 +5433,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5726,14 +5466,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5765,14 +5499,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5804,14 +5532,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5843,14 +5565,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5882,14 +5598,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5921,14 +5631,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5960,14 +5664,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5999,14 +5697,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -6038,14 +5730,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6077,14 +5763,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6113,19 +5793,13 @@
         <v>207446.6868000001</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
-        <v>1.047287581699347</v>
+        <v>1</v>
       </c>
       <c r="M148" t="inlineStr"/>
     </row>
@@ -6152,7 +5826,7 @@
         <v>207446.6868000001</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -6218,7 +5892,7 @@
         <v>313429.1250000001</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -6251,7 +5925,7 @@
         <v>313429.1250000001</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -6284,7 +5958,7 @@
         <v>313429.1250000001</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -6317,7 +5991,7 @@
         <v>313429.1250000001</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -6383,7 +6057,7 @@
         <v>317339.1250000001</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -6416,7 +6090,7 @@
         <v>282121.6152000001</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6427,6 +6101,6 @@
       <c r="M157" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-29 BackTest MITH.xlsx
+++ b/BackTest/2019-10-29 BackTest MITH.xlsx
@@ -484,14 +484,10 @@
         <v>-296447.8058</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>15.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>-296447.8058</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="J4" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -565,14 +553,8 @@
         <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -601,14 +583,10 @@
         <v>-71403.79279999997</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="J6" t="n">
-        <v>15.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -641,14 +619,8 @@
         <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -680,14 +652,8 @@
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -1838,10 +1804,14 @@
         <v>-490771.6834999999</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="J43" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
@@ -1871,11 +1841,19 @@
         <v>-235611.4419999999</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="J44" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1904,11 +1882,19 @@
         <v>-235664.5919999999</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="J45" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1940,8 +1926,14 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1978,7 +1970,11 @@
       <c r="J47" t="n">
         <v>15.1</v>
       </c>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2017,7 +2013,7 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L48" t="n">
@@ -2048,15 +2044,17 @@
         <v>-287843.4588999999</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>15.2</v>
+      </c>
       <c r="J49" t="n">
         <v>15.1</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L49" t="n">
@@ -2095,7 +2093,11 @@
       <c r="J50" t="n">
         <v>15.1</v>
       </c>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2134,7 +2136,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L51" t="n">
@@ -2175,7 +2177,7 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L52" t="n">
@@ -2216,7 +2218,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L53" t="n">
@@ -2288,9 +2290,11 @@
         <v>-157889.7813999999</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>15.2</v>
+      </c>
       <c r="J55" t="n">
         <v>15.1</v>
       </c>
@@ -3770,9 +3774,11 @@
         <v>-565720.4680999999</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>15.1</v>
+      </c>
       <c r="J93" t="n">
         <v>15.1</v>
       </c>
@@ -3928,11 +3934,9 @@
         <v>-391857.3963</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>15.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
         <v>15.1</v>
       </c>
@@ -4359,11 +4363,9 @@
         <v>-490011.5496</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>15.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
         <v>15.1</v>
       </c>
@@ -4400,11 +4402,9 @@
         <v>-490011.5496</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>15.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
         <v>15.1</v>
       </c>
@@ -4441,11 +4441,9 @@
         <v>-490011.5496</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>15.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
         <v>15.1</v>
       </c>
@@ -4482,11 +4480,9 @@
         <v>-497593.5526</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>15.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
         <v>15.1</v>
       </c>
@@ -4960,7 +4956,7 @@
         <v>41603.97249999997</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
@@ -4968,15 +4964,13 @@
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L123" t="n">
-        <v>1.067847682119205</v>
-      </c>
-      <c r="M123" t="n">
-        <v>1.033333333333333</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5001,11 +4995,17 @@
         <v>41603.97249999997</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5034,11 +5034,17 @@
         <v>-183821.4979</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5067,11 +5073,17 @@
         <v>6649.502099999983</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5100,11 +5112,17 @@
         <v>1026998.922</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5136,8 +5154,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5169,8 +5193,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5202,8 +5232,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5235,8 +5271,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5268,8 +5310,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5301,8 +5349,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5334,8 +5388,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5364,15 +5424,23 @@
         <v>817943.5869</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+        <v>1.081092715231788</v>
+      </c>
+      <c r="M135" t="n">
+        <v>1.026490066225165</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5397,7 +5465,7 @@
         <v>817943.5869</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5430,7 +5498,7 @@
         <v>817943.5869</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5463,7 +5531,7 @@
         <v>817953.5869</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5496,7 +5564,7 @@
         <v>673682.4211</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5529,7 +5597,7 @@
         <v>673694.4211</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5562,7 +5630,7 @@
         <v>673694.4211</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5595,7 +5663,7 @@
         <v>634894.4211</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5628,7 +5696,7 @@
         <v>387463.8995000001</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5859,7 +5927,7 @@
         <v>207446.6868000001</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5892,7 +5960,7 @@
         <v>313429.1250000001</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -6057,7 +6125,7 @@
         <v>317339.1250000001</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -6090,7 +6158,7 @@
         <v>282121.6152000001</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>

--- a/BackTest/2019-10-29 BackTest MITH.xlsx
+++ b/BackTest/2019-10-29 BackTest MITH.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M157"/>
+  <dimension ref="A1:L157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>200</v>
       </c>
       <c r="G2" t="n">
-        <v>-296457.8058</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>10</v>
       </c>
       <c r="G3" t="n">
-        <v>-296447.8058</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>51291.1184</v>
       </c>
       <c r="G4" t="n">
-        <v>-296447.8058</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>13698.8816</v>
       </c>
       <c r="G5" t="n">
-        <v>-296447.8058</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>225044.013</v>
       </c>
       <c r="G6" t="n">
-        <v>-71403.79279999997</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>12</v>
       </c>
       <c r="G7" t="n">
-        <v>-71391.79279999997</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>109968.8697</v>
       </c>
       <c r="G8" t="n">
-        <v>-71391.79279999997</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>56276.0032</v>
       </c>
       <c r="G9" t="n">
-        <v>-15115.78959999997</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>2500</v>
       </c>
       <c r="G10" t="n">
-        <v>-17615.78959999997</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>50000</v>
       </c>
       <c r="G11" t="n">
-        <v>-17615.78959999997</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>51303.6784</v>
       </c>
       <c r="G12" t="n">
-        <v>33687.88880000003</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>13664.6344</v>
       </c>
       <c r="G13" t="n">
-        <v>20023.25440000003</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>16893.6569</v>
       </c>
       <c r="G14" t="n">
-        <v>36916.91130000003</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>3049.224</v>
       </c>
       <c r="G15" t="n">
-        <v>33867.68730000003</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>3400.405</v>
       </c>
       <c r="G16" t="n">
-        <v>33867.68730000003</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>86037.91220000001</v>
       </c>
       <c r="G17" t="n">
-        <v>-52170.22489999998</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>390531.7902</v>
       </c>
       <c r="G18" t="n">
-        <v>-442702.0151</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>27545</v>
       </c>
       <c r="G19" t="n">
-        <v>-415157.0151</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>40000</v>
       </c>
       <c r="G20" t="n">
-        <v>-415157.0151</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>10550.7631</v>
       </c>
       <c r="G21" t="n">
-        <v>-425707.7781999999</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>2617.1316</v>
       </c>
       <c r="G22" t="n">
-        <v>-425707.7781999999</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>15416.3181</v>
       </c>
       <c r="G23" t="n">
-        <v>-441124.0962999999</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>17491.3683</v>
       </c>
       <c r="G24" t="n">
-        <v>-441124.0962999999</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>168466.6738</v>
       </c>
       <c r="G25" t="n">
-        <v>-441124.0962999999</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>200</v>
       </c>
       <c r="G26" t="n">
-        <v>-440924.0962999999</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>271616.082</v>
       </c>
       <c r="G27" t="n">
-        <v>-712540.1782999999</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>28.6706</v>
       </c>
       <c r="G28" t="n">
-        <v>-712540.1782999999</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>65276.2639</v>
       </c>
       <c r="G29" t="n">
-        <v>-647263.9143999999</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>99484.0287</v>
       </c>
       <c r="G30" t="n">
-        <v>-547779.8856999999</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>13942.3258</v>
       </c>
       <c r="G31" t="n">
-        <v>-561722.2114999999</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>247046.4274</v>
       </c>
       <c r="G32" t="n">
-        <v>-314675.7840999999</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>209180.9987</v>
       </c>
       <c r="G33" t="n">
-        <v>-314675.7840999999</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>8000</v>
       </c>
       <c r="G34" t="n">
-        <v>-314675.7840999999</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>55619.8228</v>
       </c>
       <c r="G35" t="n">
-        <v>-370295.6068999999</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>10435.1664</v>
       </c>
       <c r="G36" t="n">
-        <v>-359860.4404999999</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>129286.4783</v>
       </c>
       <c r="G37" t="n">
-        <v>-489146.9187999999</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>1624.7647</v>
       </c>
       <c r="G38" t="n">
-        <v>-490771.6834999999</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>53893.7319</v>
       </c>
       <c r="G39" t="n">
-        <v>-490771.6834999999</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>105073.5784</v>
       </c>
       <c r="G40" t="n">
-        <v>-490771.6834999999</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>13200</v>
       </c>
       <c r="G41" t="n">
-        <v>-490771.6834999999</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>3100</v>
       </c>
       <c r="G42" t="n">
-        <v>-490771.6834999999</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,22 +1673,15 @@
         <v>5314.6357</v>
       </c>
       <c r="G43" t="n">
-        <v>-490771.6834999999</v>
-      </c>
-      <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="J43" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1838,26 +1703,15 @@
         <v>255160.2415</v>
       </c>
       <c r="G44" t="n">
-        <v>-235611.4419999999</v>
-      </c>
-      <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="J44" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1879,26 +1733,15 @@
         <v>53.15</v>
       </c>
       <c r="G45" t="n">
-        <v>-235664.5919999999</v>
-      </c>
-      <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="J45" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1920,24 +1763,15 @@
         <v>6486.1328</v>
       </c>
       <c r="G46" t="n">
-        <v>-235664.5919999999</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1959,26 +1793,15 @@
         <v>2278.8669</v>
       </c>
       <c r="G47" t="n">
-        <v>-237943.4588999999</v>
-      </c>
-      <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="J47" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2000,26 +1823,15 @@
         <v>100</v>
       </c>
       <c r="G48" t="n">
-        <v>-237843.4588999999</v>
-      </c>
-      <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>15</v>
-      </c>
-      <c r="J48" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2041,26 +1853,15 @@
         <v>50000</v>
       </c>
       <c r="G49" t="n">
-        <v>-287843.4588999999</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="J49" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2082,26 +1883,15 @@
         <v>9158.088299999999</v>
       </c>
       <c r="G50" t="n">
-        <v>-287843.4588999999</v>
-      </c>
-      <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="J50" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2123,26 +1913,15 @@
         <v>67998.54059999999</v>
       </c>
       <c r="G51" t="n">
-        <v>-287843.4588999999</v>
-      </c>
-      <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="J51" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2164,26 +1943,19 @@
         <v>5817.8256</v>
       </c>
       <c r="G52" t="n">
-        <v>-287843.4588999999</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>15.1</v>
       </c>
       <c r="I52" t="n">
         <v>15.1</v>
       </c>
-      <c r="J52" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2205,26 +1977,23 @@
         <v>129953.6775</v>
       </c>
       <c r="G53" t="n">
-        <v>-157889.7813999999</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>15.1</v>
       </c>
       <c r="I53" t="n">
         <v>15.1</v>
       </c>
-      <c r="J53" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2246,26 +2015,23 @@
         <v>295730.4961</v>
       </c>
       <c r="G54" t="n">
-        <v>-157889.7813999999</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>15.2</v>
       </c>
       <c r="I54" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="J54" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>15.1</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2287,26 +2053,23 @@
         <v>14030</v>
       </c>
       <c r="G55" t="n">
-        <v>-157889.7813999999</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>15.2</v>
       </c>
       <c r="I55" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="J55" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>15.1</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2328,24 +2091,21 @@
         <v>109.7637</v>
       </c>
       <c r="G56" t="n">
-        <v>-157889.7813999999</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2367,24 +2127,21 @@
         <v>548.131</v>
       </c>
       <c r="G57" t="n">
-        <v>-157889.7813999999</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2406,24 +2163,21 @@
         <v>365.4186</v>
       </c>
       <c r="G58" t="n">
-        <v>-157889.7813999999</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2445,24 +2199,21 @@
         <v>104759.1666</v>
       </c>
       <c r="G59" t="n">
-        <v>-53130.61479999992</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2484,24 +2235,21 @@
         <v>1324.8738</v>
       </c>
       <c r="G60" t="n">
-        <v>-54455.48859999992</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2523,24 +2271,21 @@
         <v>9000</v>
       </c>
       <c r="G61" t="n">
-        <v>-54455.48859999992</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2562,24 +2307,21 @@
         <v>190289.4279</v>
       </c>
       <c r="G62" t="n">
-        <v>-54455.48859999992</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2601,24 +2343,21 @@
         <v>5965</v>
       </c>
       <c r="G63" t="n">
-        <v>-54455.48859999992</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2640,24 +2379,21 @@
         <v>13700</v>
       </c>
       <c r="G64" t="n">
-        <v>-54455.48859999992</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2679,24 +2415,21 @@
         <v>25800</v>
       </c>
       <c r="G65" t="n">
-        <v>-54455.48859999992</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2718,24 +2451,21 @@
         <v>28500</v>
       </c>
       <c r="G66" t="n">
-        <v>-54455.48859999992</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2757,24 +2487,21 @@
         <v>37060</v>
       </c>
       <c r="G67" t="n">
-        <v>-54455.48859999992</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2796,24 +2523,21 @@
         <v>648.3968</v>
       </c>
       <c r="G68" t="n">
-        <v>-54455.48859999992</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2835,24 +2559,21 @@
         <v>50000</v>
       </c>
       <c r="G69" t="n">
-        <v>-4455.488599999924</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2874,24 +2595,21 @@
         <v>4334.6129</v>
       </c>
       <c r="G70" t="n">
-        <v>-4455.488599999924</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2913,24 +2631,21 @@
         <v>158638</v>
       </c>
       <c r="G71" t="n">
-        <v>154182.5114000001</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2952,24 +2667,21 @@
         <v>10000</v>
       </c>
       <c r="G72" t="n">
-        <v>154182.5114000001</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2991,24 +2703,21 @@
         <v>8087.4025</v>
       </c>
       <c r="G73" t="n">
-        <v>154182.5114000001</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3030,24 +2739,21 @@
         <v>37592.1476</v>
       </c>
       <c r="G74" t="n">
-        <v>116590.3638000001</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3069,24 +2775,21 @@
         <v>195265.8951</v>
       </c>
       <c r="G75" t="n">
-        <v>-78675.53129999992</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3108,24 +2811,21 @@
         <v>272.702</v>
       </c>
       <c r="G76" t="n">
-        <v>-78402.82929999991</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3147,24 +2847,21 @@
         <v>81929.79459999999</v>
       </c>
       <c r="G77" t="n">
-        <v>-160332.6238999999</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3186,24 +2883,21 @@
         <v>40964.8973</v>
       </c>
       <c r="G78" t="n">
-        <v>-160332.6238999999</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3225,24 +2919,21 @@
         <v>143.0194</v>
       </c>
       <c r="G79" t="n">
-        <v>-160189.6044999999</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3264,24 +2955,21 @@
         <v>288.8961</v>
       </c>
       <c r="G80" t="n">
-        <v>-160189.6044999999</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3303,24 +2991,21 @@
         <v>13506.4935</v>
       </c>
       <c r="G81" t="n">
-        <v>-160189.6044999999</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3342,24 +3027,21 @@
         <v>14100</v>
       </c>
       <c r="G82" t="n">
-        <v>-160189.6044999999</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3381,24 +3063,21 @@
         <v>17158.8571</v>
       </c>
       <c r="G83" t="n">
-        <v>-160189.6044999999</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3420,24 +3099,21 @@
         <v>109360.3289</v>
       </c>
       <c r="G84" t="n">
-        <v>-269549.9333999999</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3459,24 +3135,21 @@
         <v>26438.6666</v>
       </c>
       <c r="G85" t="n">
-        <v>-269549.9333999999</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3498,24 +3171,21 @@
         <v>128886.0492</v>
       </c>
       <c r="G86" t="n">
-        <v>-398435.9825999999</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3537,24 +3207,21 @@
         <v>6317</v>
       </c>
       <c r="G87" t="n">
-        <v>-392118.9825999999</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3576,24 +3243,21 @@
         <v>26600</v>
       </c>
       <c r="G88" t="n">
-        <v>-392118.9825999999</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3615,24 +3279,21 @@
         <v>112283.7208</v>
       </c>
       <c r="G89" t="n">
-        <v>-504402.7033999999</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3654,24 +3315,21 @@
         <v>2482.8592</v>
       </c>
       <c r="G90" t="n">
-        <v>-504402.7033999999</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3693,24 +3351,21 @@
         <v>72074.44439999999</v>
       </c>
       <c r="G91" t="n">
-        <v>-432328.2589999999</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3732,24 +3387,21 @@
         <v>133392.2091</v>
       </c>
       <c r="G92" t="n">
-        <v>-565720.4680999999</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3771,26 +3423,21 @@
         <v>7042.6138</v>
       </c>
       <c r="G93" t="n">
-        <v>-565720.4680999999</v>
-      </c>
-      <c r="H93" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="n">
         <v>15.1</v>
       </c>
-      <c r="J93" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3812,26 +3459,21 @@
         <v>196221.7647</v>
       </c>
       <c r="G94" t="n">
-        <v>-369498.7033999999</v>
-      </c>
-      <c r="H94" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="n">
         <v>15.1</v>
       </c>
-      <c r="J94" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3853,24 +3495,21 @@
         <v>51900</v>
       </c>
       <c r="G95" t="n">
-        <v>-421398.7033999999</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3892,24 +3531,21 @@
         <v>50000</v>
       </c>
       <c r="G96" t="n">
-        <v>-421398.7033999999</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3931,24 +3567,21 @@
         <v>29541.3071</v>
       </c>
       <c r="G97" t="n">
-        <v>-391857.3963</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3970,24 +3603,21 @@
         <v>20</v>
       </c>
       <c r="G98" t="n">
-        <v>-391877.3963</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4009,24 +3639,21 @@
         <v>107212.1815</v>
       </c>
       <c r="G99" t="n">
-        <v>-391877.3963</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4048,24 +3675,21 @@
         <v>54900</v>
       </c>
       <c r="G100" t="n">
-        <v>-336977.3963</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4087,24 +3711,21 @@
         <v>51000</v>
       </c>
       <c r="G101" t="n">
-        <v>-387977.3963</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4126,24 +3747,21 @@
         <v>101756.7532467532</v>
       </c>
       <c r="G102" t="n">
-        <v>-387977.3963</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4165,24 +3783,21 @@
         <v>20482.4487</v>
       </c>
       <c r="G103" t="n">
-        <v>-387977.3963</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4204,24 +3819,21 @@
         <v>13344.711</v>
       </c>
       <c r="G104" t="n">
-        <v>-374632.6853</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4243,24 +3855,21 @@
         <v>115378.8643</v>
       </c>
       <c r="G105" t="n">
-        <v>-490011.5496</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4282,24 +3891,21 @@
         <v>42045.141</v>
       </c>
       <c r="G106" t="n">
-        <v>-490011.5496</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4321,24 +3927,21 @@
         <v>5515</v>
       </c>
       <c r="G107" t="n">
-        <v>-490011.5496</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4360,24 +3963,21 @@
         <v>48605</v>
       </c>
       <c r="G108" t="n">
-        <v>-490011.5496</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4399,24 +3999,21 @@
         <v>24545</v>
       </c>
       <c r="G109" t="n">
-        <v>-490011.5496</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4438,24 +4035,21 @@
         <v>27600</v>
       </c>
       <c r="G110" t="n">
-        <v>-490011.5496</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4477,24 +4071,21 @@
         <v>7582.003</v>
       </c>
       <c r="G111" t="n">
-        <v>-497593.5526</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4516,26 +4107,21 @@
         <v>50554.577</v>
       </c>
       <c r="G112" t="n">
-        <v>-447038.9756</v>
-      </c>
-      <c r="H112" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="n">
         <v>15.1</v>
       </c>
-      <c r="J112" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4557,26 +4143,21 @@
         <v>6578.9473</v>
       </c>
       <c r="G113" t="n">
-        <v>-447038.9756</v>
-      </c>
-      <c r="H113" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="J113" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+        <v>15.1</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4598,26 +4179,21 @@
         <v>1888.5549</v>
       </c>
       <c r="G114" t="n">
-        <v>-447038.9756</v>
-      </c>
-      <c r="H114" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="J114" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+        <v>15.1</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4639,26 +4215,21 @@
         <v>32512.0625</v>
       </c>
       <c r="G115" t="n">
-        <v>-414526.9131</v>
-      </c>
-      <c r="H115" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="J115" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>15.1</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4680,24 +4251,21 @@
         <v>10</v>
       </c>
       <c r="G116" t="n">
-        <v>-414516.9131</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4719,24 +4287,21 @@
         <v>236615</v>
       </c>
       <c r="G117" t="n">
-        <v>-651131.9131</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4758,24 +4323,21 @@
         <v>170868</v>
       </c>
       <c r="G118" t="n">
-        <v>-480263.9131</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4797,24 +4359,21 @@
         <v>190000</v>
       </c>
       <c r="G119" t="n">
-        <v>-290263.9131</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4836,24 +4395,21 @@
         <v>143991.3958</v>
       </c>
       <c r="G120" t="n">
-        <v>-290263.9131</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4875,24 +4431,21 @@
         <v>64600</v>
       </c>
       <c r="G121" t="n">
-        <v>-225663.9131</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4914,24 +4467,21 @@
         <v>267267.8856</v>
       </c>
       <c r="G122" t="n">
-        <v>41603.97249999997</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4953,24 +4503,21 @@
         <v>39639.6796</v>
       </c>
       <c r="G123" t="n">
-        <v>41603.97249999997</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4992,24 +4539,21 @@
         <v>190413.3</v>
       </c>
       <c r="G124" t="n">
-        <v>41603.97249999997</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5031,24 +4575,21 @@
         <v>225425.4704</v>
       </c>
       <c r="G125" t="n">
-        <v>-183821.4979</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5070,24 +4611,21 @@
         <v>190471</v>
       </c>
       <c r="G126" t="n">
-        <v>6649.502099999983</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5109,24 +4647,21 @@
         <v>1020349.4199</v>
       </c>
       <c r="G127" t="n">
-        <v>1026998.922</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5148,24 +4683,21 @@
         <v>654155.1551</v>
       </c>
       <c r="G128" t="n">
-        <v>1026998.922</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5187,24 +4719,21 @@
         <v>405142.0102</v>
       </c>
       <c r="G129" t="n">
-        <v>621856.9118</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5226,24 +4755,21 @@
         <v>261163.9175</v>
       </c>
       <c r="G130" t="n">
-        <v>883020.8293</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5265,24 +4791,21 @@
         <v>143197.4809</v>
       </c>
       <c r="G131" t="n">
-        <v>883020.8293</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5304,24 +4827,21 @@
         <v>217137.2518</v>
       </c>
       <c r="G132" t="n">
-        <v>883020.8293</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5343,24 +4863,21 @@
         <v>280501.822</v>
       </c>
       <c r="G133" t="n">
-        <v>883020.8293</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5382,24 +4899,21 @@
         <v>12926.968</v>
       </c>
       <c r="G134" t="n">
-        <v>895947.7973</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5421,26 +4935,21 @@
         <v>78004.2104</v>
       </c>
       <c r="G135" t="n">
-        <v>817943.5869</v>
-      </c>
-      <c r="H135" t="n">
-        <v>2</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1.081092715231788</v>
-      </c>
-      <c r="M135" t="n">
-        <v>1.026490066225165</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5462,18 +4971,23 @@
         <v>23741.2873</v>
       </c>
       <c r="G136" t="n">
-        <v>817943.5869</v>
-      </c>
-      <c r="H136" t="n">
         <v>2</v>
       </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1.081092715231788</v>
+      </c>
       <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+        <v>1.033333333333333</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5495,18 +5009,15 @@
         <v>142088.7126</v>
       </c>
       <c r="G137" t="n">
-        <v>817943.5869</v>
-      </c>
-      <c r="H137" t="n">
         <v>2</v>
       </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5528,18 +5039,15 @@
         <v>10</v>
       </c>
       <c r="G138" t="n">
-        <v>817953.5869</v>
-      </c>
-      <c r="H138" t="n">
         <v>2</v>
       </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5561,18 +5069,15 @@
         <v>144271.1658</v>
       </c>
       <c r="G139" t="n">
-        <v>673682.4211</v>
-      </c>
-      <c r="H139" t="n">
         <v>2</v>
       </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5594,18 +5099,15 @@
         <v>12</v>
       </c>
       <c r="G140" t="n">
-        <v>673694.4211</v>
-      </c>
-      <c r="H140" t="n">
         <v>2</v>
       </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5627,18 +5129,15 @@
         <v>16721.4024</v>
       </c>
       <c r="G141" t="n">
-        <v>673694.4211</v>
-      </c>
-      <c r="H141" t="n">
         <v>2</v>
       </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5660,18 +5159,15 @@
         <v>38800</v>
       </c>
       <c r="G142" t="n">
-        <v>634894.4211</v>
-      </c>
-      <c r="H142" t="n">
         <v>2</v>
       </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5693,18 +5189,15 @@
         <v>247430.5216</v>
       </c>
       <c r="G143" t="n">
-        <v>387463.8995000001</v>
-      </c>
-      <c r="H143" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5726,18 +5219,15 @@
         <v>208431.3118</v>
       </c>
       <c r="G144" t="n">
-        <v>387463.8995000001</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5759,18 +5249,15 @@
         <v>185219.2127</v>
       </c>
       <c r="G145" t="n">
-        <v>202244.6868000001</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5792,18 +5279,15 @@
         <v>5202</v>
       </c>
       <c r="G146" t="n">
-        <v>207446.6868000001</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5825,18 +5309,15 @@
         <v>39000</v>
       </c>
       <c r="G147" t="n">
-        <v>207446.6868000001</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5858,18 +5339,15 @@
         <v>55296.8378</v>
       </c>
       <c r="G148" t="n">
-        <v>207446.6868000001</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5891,18 +5369,15 @@
         <v>48896.4785</v>
       </c>
       <c r="G149" t="n">
-        <v>207446.6868000001</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5924,18 +5399,15 @@
         <v>75116.02499999999</v>
       </c>
       <c r="G150" t="n">
-        <v>207446.6868000001</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5957,18 +5429,15 @@
         <v>105982.4382</v>
       </c>
       <c r="G151" t="n">
-        <v>313429.1250000001</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5990,18 +5459,15 @@
         <v>64472.932</v>
       </c>
       <c r="G152" t="n">
-        <v>313429.1250000001</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6023,18 +5489,15 @@
         <v>140278.4567</v>
       </c>
       <c r="G153" t="n">
-        <v>313429.1250000001</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6056,18 +5519,15 @@
         <v>26408.3333</v>
       </c>
       <c r="G154" t="n">
-        <v>313429.1250000001</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6089,18 +5549,15 @@
         <v>50010</v>
       </c>
       <c r="G155" t="n">
-        <v>363439.1250000001</v>
-      </c>
-      <c r="H155" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6122,18 +5579,15 @@
         <v>46100</v>
       </c>
       <c r="G156" t="n">
-        <v>317339.1250000001</v>
-      </c>
-      <c r="H156" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6155,18 +5609,15 @@
         <v>35217.5098</v>
       </c>
       <c r="G157" t="n">
-        <v>282121.6152000001</v>
-      </c>
-      <c r="H157" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
